--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AC3FBE-7BE5-4A92-B69F-1FD18168C06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78809FF-4C75-45BD-8D70-C45A591B6C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8550" yWindow="0" windowWidth="20250" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -596,9 +596,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
   <dimension ref="A1:CD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BI12" sqref="BI12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BY28" sqref="BY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,6 +1359,9 @@
       <c r="BX3" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BY3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1589,6 +1592,9 @@
       <c r="BX4" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BY4" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1819,6 +1825,9 @@
       <c r="BX5" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="BY5" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2049,6 +2058,9 @@
       <c r="BX6" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BY6" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2279,6 +2291,9 @@
       <c r="BX7" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="BY7" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2509,6 +2524,9 @@
       <c r="BX8" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BY8" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2739,6 +2757,9 @@
       <c r="BX9" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="BY9" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2969,6 +2990,9 @@
       <c r="BX10" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="BY10" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3199,6 +3223,9 @@
       <c r="BX11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BY11" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3429,6 +3456,9 @@
       <c r="BX12" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BY12" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3659,6 +3689,9 @@
       <c r="BX13" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BY13" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3889,6 +3922,9 @@
       <c r="BX14" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BY14" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4119,6 +4155,9 @@
       <c r="BX15" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BY15" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4349,8 +4388,11 @@
       <c r="BX16" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BY16" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4579,8 +4621,11 @@
       <c r="BX17" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BY17" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4809,8 +4854,11 @@
       <c r="BX18" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BY18" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5039,8 +5087,11 @@
       <c r="BX19" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BY19" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5269,8 +5320,11 @@
       <c r="BX20" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="BY20" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5499,8 +5553,11 @@
       <c r="BX21" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BY21" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5729,8 +5786,11 @@
       <c r="BX22" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="BY22" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5959,8 +6019,11 @@
       <c r="BX23" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BY23" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6189,8 +6252,11 @@
       <c r="BX24" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BY24" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6419,8 +6485,11 @@
       <c r="BX25" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BY25" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6649,8 +6718,11 @@
       <c r="BX26" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BY26" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -6879,8 +6951,11 @@
       <c r="BX27" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BY27" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -7109,8 +7184,11 @@
       <c r="BX28" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="BY28" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="29" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -7339,9 +7417,12 @@
       <c r="BX29" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BY29" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD2 E3 A3:D6 G3:BD3 E4:I6 J4:V14 A7:I14 A15:V29 A31:XFD1048576 A30:BT30 W4:BD29 BU3:XFD30 BE3:BT29">
+  <conditionalFormatting sqref="A1:XFD2 E3 A3:D6 G3:BD3 E4:I6 J4:V14 A7:I14 A15:V29 A31:XFD1048576 A30:BT30 W4:BD29 BE3:BT29 BU3:XFD30">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78809FF-4C75-45BD-8D70-C45A591B6C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549755BF-C0DE-45F9-9A39-42497C778186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="0" windowWidth="20250" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -596,9 +596,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
   <dimension ref="A1:CD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BY28" sqref="BY28"/>
+      <selection pane="topRight" activeCell="BZ24" sqref="BZ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,6 +1362,9 @@
       <c r="BY3" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1595,6 +1598,9 @@
       <c r="BY4" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ4" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1828,6 +1834,9 @@
       <c r="BY5" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="BZ5" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2061,6 +2070,9 @@
       <c r="BY6" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ6" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2294,6 +2306,9 @@
       <c r="BY7" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ7" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2527,6 +2542,9 @@
       <c r="BY8" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ8" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2760,6 +2778,9 @@
       <c r="BY9" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ9" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2993,6 +3014,9 @@
       <c r="BY10" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ10" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3226,6 +3250,9 @@
       <c r="BY11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ11" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3459,6 +3486,9 @@
       <c r="BY12" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ12" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3692,6 +3722,9 @@
       <c r="BY13" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ13" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3925,6 +3958,9 @@
       <c r="BY14" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="BZ14" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4158,6 +4194,9 @@
       <c r="BY15" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ15" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4391,8 +4430,11 @@
       <c r="BY16" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ16" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4624,8 +4666,11 @@
       <c r="BY17" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ17" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4857,8 +4902,11 @@
       <c r="BY18" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ18" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5090,8 +5138,11 @@
       <c r="BY19" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ19" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5323,8 +5374,11 @@
       <c r="BY20" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="BZ20" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5556,8 +5610,11 @@
       <c r="BY21" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ21" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5789,8 +5846,11 @@
       <c r="BY22" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ22" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6022,8 +6082,11 @@
       <c r="BY23" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ23" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6255,8 +6318,11 @@
       <c r="BY24" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ24" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6488,8 +6554,11 @@
       <c r="BY25" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ25" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6721,8 +6790,11 @@
       <c r="BY26" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ26" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -6954,8 +7026,11 @@
       <c r="BY27" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ27" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="28" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -7187,8 +7262,11 @@
       <c r="BY28" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ28" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="29" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -7418,6 +7496,9 @@
         <v>32</v>
       </c>
       <c r="BY29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BZ29" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78809FF-4C75-45BD-8D70-C45A591B6C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9F0FFD-26BB-4C27-AD57-ECB6DAD1FCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="0" windowWidth="20250" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -596,9 +596,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
   <dimension ref="A1:CD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BY28" sqref="BY28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CF26" sqref="CF26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,6 +1362,12 @@
       <c r="BY3" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA3" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1595,6 +1601,12 @@
       <c r="BY4" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA4" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1828,6 +1840,12 @@
       <c r="BY5" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="BZ5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA5" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2061,6 +2079,12 @@
       <c r="BY6" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA6" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2294,6 +2318,12 @@
       <c r="BY7" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA7" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2527,6 +2557,12 @@
       <c r="BY8" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA8" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2760,6 +2796,12 @@
       <c r="BY9" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA9" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2993,6 +3035,12 @@
       <c r="BY10" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA10" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3226,6 +3274,12 @@
       <c r="BY11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA11" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3459,6 +3513,12 @@
       <c r="BY12" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA12" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3692,6 +3752,12 @@
       <c r="BY13" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA13" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3925,6 +3991,12 @@
       <c r="BY14" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="BZ14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA14" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4158,6 +4230,12 @@
       <c r="BY15" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA15" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4391,8 +4469,14 @@
       <c r="BY16" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA16" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4624,8 +4708,14 @@
       <c r="BY17" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA17" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4857,8 +4947,14 @@
       <c r="BY18" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA18" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5090,8 +5186,14 @@
       <c r="BY19" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA19" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5323,8 +5425,14 @@
       <c r="BY20" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="BZ20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA20" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5556,8 +5664,14 @@
       <c r="BY21" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA21" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5789,8 +5903,14 @@
       <c r="BY22" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA22" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6022,8 +6142,14 @@
       <c r="BY23" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA23" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6255,8 +6381,14 @@
       <c r="BY24" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA24" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6488,8 +6620,14 @@
       <c r="BY25" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA25" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6721,8 +6859,14 @@
       <c r="BY26" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA26" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -6954,8 +7098,14 @@
       <c r="BY27" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA27" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="28" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -7187,8 +7337,14 @@
       <c r="BY28" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="BZ28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA28" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="29" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -7418,6 +7574,12 @@
         <v>32</v>
       </c>
       <c r="BY29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BZ29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA29" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9F0FFD-26BB-4C27-AD57-ECB6DAD1FCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7876FFCD-AC48-4002-BF0C-6DC8179D0DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -598,7 +598,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CF26" sqref="CF26"/>
+      <selection pane="topRight" activeCell="CB29" sqref="CB29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,6 +1368,9 @@
       <c r="CA3" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CB3" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1607,6 +1610,9 @@
       <c r="CA4" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CB4" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1846,6 +1852,9 @@
       <c r="CA5" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CB5" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2085,6 +2094,9 @@
       <c r="CA6" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CB6" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2324,6 +2336,9 @@
       <c r="CA7" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CB7" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2563,6 +2578,9 @@
       <c r="CA8" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CB8" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2802,6 +2820,9 @@
       <c r="CA9" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CB9" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3041,6 +3062,9 @@
       <c r="CA10" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CB10" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3280,6 +3304,9 @@
       <c r="CA11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CB11" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3519,6 +3546,9 @@
       <c r="CA12" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CB12" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3758,6 +3788,9 @@
       <c r="CA13" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CB13" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3997,6 +4030,9 @@
       <c r="CA14" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CB14" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4236,6 +4272,9 @@
       <c r="CA15" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CB15" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4475,8 +4514,11 @@
       <c r="CA16" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CB16" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4714,8 +4756,11 @@
       <c r="CA17" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CB17" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4953,8 +4998,11 @@
       <c r="CA18" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CB18" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5192,8 +5240,11 @@
       <c r="CA19" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CB19" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5431,8 +5482,11 @@
       <c r="CA20" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CB20" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5670,8 +5724,11 @@
       <c r="CA21" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CB21" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5909,8 +5966,11 @@
       <c r="CA22" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CB22" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6148,8 +6208,11 @@
       <c r="CA23" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CB23" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6387,8 +6450,11 @@
       <c r="CA24" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CB24" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6626,8 +6692,11 @@
       <c r="CA25" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CB25" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6865,8 +6934,11 @@
       <c r="CA26" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CB26" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -7104,8 +7176,11 @@
       <c r="CA27" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CB27" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -7343,8 +7418,11 @@
       <c r="CA28" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CB28" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -7580,6 +7658,9 @@
         <v>32</v>
       </c>
       <c r="CA29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CB29" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7876FFCD-AC48-4002-BF0C-6DC8179D0DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F027853-347C-478D-A579-88A5DAF989EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="39">
   <si>
     <t>Aluno</t>
   </si>
@@ -140,6 +140,9 @@
   <si>
     <t>Feriado</t>
   </si>
+  <si>
+    <t>?</t>
+  </si>
 </sst>
 </file>
 
@@ -154,12 +157,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -174,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -187,6 +196,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,11 +606,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:CD29"/>
+  <dimension ref="A1:CG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CB29" sqref="CB29"/>
+      <selection pane="topRight" activeCell="CF29" sqref="CF29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +652,7 @@
     <col min="80" max="82" width="7.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44949</v>
       </c>
@@ -881,8 +893,14 @@
       <c r="CD1" s="3">
         <v>45058</v>
       </c>
+      <c r="CE1" s="3">
+        <v>45061</v>
+      </c>
+      <c r="CF1" s="3">
+        <v>45062</v>
+      </c>
     </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1129,8 +1147,14 @@
       <c r="CD2" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="CE2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="CF2" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1371,8 +1395,20 @@
       <c r="CB3" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="CC3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF3" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1613,8 +1649,20 @@
       <c r="CB4" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="CC4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF4" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1855,8 +1903,20 @@
       <c r="CB5" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CC5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CE5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF5" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2157,20 @@
       <c r="CB6" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CC6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF6" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2339,8 +2411,21 @@
       <c r="CB7" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CC7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CF7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CG7" s="2"/>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2581,8 +2666,20 @@
       <c r="CB8" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CC8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF8" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2823,8 +2920,20 @@
       <c r="CB9" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CC9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CE9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF9" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3065,8 +3174,20 @@
       <c r="CB10" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CC10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF10" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3307,8 +3428,20 @@
       <c r="CB11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CC11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF11" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3549,8 +3682,20 @@
       <c r="CB12" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CC12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF12" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3791,8 +3936,20 @@
       <c r="CB13" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CC13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF13" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4033,8 +4190,20 @@
       <c r="CB14" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CC14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF14" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -4275,8 +4444,20 @@
       <c r="CB15" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CC15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CF15" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -4517,8 +4698,20 @@
       <c r="CB16" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CC16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF16" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="17" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4759,8 +4952,20 @@
       <c r="CB17" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CC17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF17" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="18" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5001,8 +5206,20 @@
       <c r="CB18" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CC18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CE18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CF18" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="19" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5243,8 +5460,20 @@
       <c r="CB19" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CC19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF19" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="20" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5485,8 +5714,20 @@
       <c r="CB20" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CC20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CE20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CF20" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="21" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5727,8 +5968,20 @@
       <c r="CB21" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="CC21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF21" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="22" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5969,8 +6222,20 @@
       <c r="CB22" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CC22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF22" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="23" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6211,8 +6476,20 @@
       <c r="CB23" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CC23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF23" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="24" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6453,8 +6730,20 @@
       <c r="CB24" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CC24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF24" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="25" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6695,8 +6984,20 @@
       <c r="CB25" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CC25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF25" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="26" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6937,8 +7238,20 @@
       <c r="CB26" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CC26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF26" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="27" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -7179,8 +7492,20 @@
       <c r="CB27" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CC27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF27" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="28" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -7421,8 +7746,20 @@
       <c r="CB28" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CC28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CE28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CF28" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="29" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -7661,6 +7998,18 @@
         <v>32</v>
       </c>
       <c r="CB29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CC29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF29" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F027853-347C-478D-A579-88A5DAF989EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A532643-E2AE-4168-845A-3C2167A41DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -140,9 +140,6 @@
   <si>
     <t>Feriado</t>
   </si>
-  <si>
-    <t>?</t>
-  </si>
 </sst>
 </file>
 
@@ -157,18 +154,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -198,14 +189,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -606,11 +602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:CG29"/>
+  <dimension ref="A1:CI29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CF29" sqref="CF29"/>
+      <selection pane="topRight" activeCell="BZ9" sqref="BZ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,9 +646,11 @@
     <col min="75" max="77" width="7.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="78" max="79" width="7.7109375" style="2" customWidth="1"/>
     <col min="80" max="82" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="83" max="84" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="85" max="87" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44949</v>
       </c>
@@ -896,11 +894,20 @@
       <c r="CE1" s="3">
         <v>45061</v>
       </c>
-      <c r="CF1" s="3">
+      <c r="CF1" s="6">
         <v>45062</v>
       </c>
+      <c r="CG1" s="6">
+        <v>45063</v>
+      </c>
+      <c r="CH1" s="6">
+        <v>45064</v>
+      </c>
+      <c r="CI1" s="6">
+        <v>45065</v>
+      </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1147,14 +1154,23 @@
       <c r="CD2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="CE2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="CF2" s="6" t="s">
-        <v>38</v>
+      <c r="CE2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="CG2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="CH2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="CI2" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1408,7 +1424,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1662,7 +1678,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1916,7 +1932,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2170,7 +2186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2425,7 +2441,7 @@
       </c>
       <c r="CG7" s="2"/>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2679,7 +2695,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2933,7 +2949,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3187,7 +3203,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3441,7 +3457,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3695,7 +3711,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3949,7 +3965,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4203,7 +4219,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -4457,7 +4473,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -8014,87 +8030,92 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD2 E3 A3:D6 G3:BD3 E4:I6 J4:V14 A7:I14 A15:V29 A31:XFD1048576 A30:BT30 W4:BD29 BE3:BT29 BU3:XFD30">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+  <conditionalFormatting sqref="E3 A3:D6 G3:BD3 E4:I6 J4:V14 A7:I14 A15:V29 A31:XFD1048576 A30:BT30 W4:BD29 BE3:BT29 BU3:XFD30 A1:XFD2">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D6 E3 G3:V3 E4:I6 J4:V14 C7:I14 C15:V29">
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I2">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:N2">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:N2">
+  <conditionalFormatting sqref="R2:S2">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:S2">
+  <conditionalFormatting sqref="W2:X2">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:X2">
+  <conditionalFormatting sqref="AB2:AC2">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AC2">
+  <conditionalFormatting sqref="AG2:AH2">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AH2">
+  <conditionalFormatting sqref="AL2:AM2">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AM2">
+  <conditionalFormatting sqref="AQ2:AR2">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ2:AR2">
+  <conditionalFormatting sqref="AV2:AW2">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV2:AW2">
+  <conditionalFormatting sqref="BA2:BB2">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA2:BB2">
+  <conditionalFormatting sqref="BF2:BG2">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF2:BG2">
+  <conditionalFormatting sqref="BK2:BL2">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK2:BL2">
+  <conditionalFormatting sqref="BP2:BQ2">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP2:BQ2">
+  <conditionalFormatting sqref="BU2:BV2">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU2:BV2">
+  <conditionalFormatting sqref="BZ2:CA2">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ2:CA2">
+  <conditionalFormatting sqref="CE2:CF2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A532643-E2AE-4168-845A-3C2167A41DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FDDF68-0D46-4C87-A8AF-93607E52B785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -174,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -188,9 +188,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,7 +603,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BZ9" sqref="BZ9"/>
+      <selection pane="topRight" activeCell="CI11" sqref="CI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,16 +891,16 @@
       <c r="CE1" s="3">
         <v>45061</v>
       </c>
-      <c r="CF1" s="6">
+      <c r="CF1" s="3">
         <v>45062</v>
       </c>
-      <c r="CG1" s="6">
+      <c r="CG1" s="3">
         <v>45063</v>
       </c>
-      <c r="CH1" s="6">
+      <c r="CH1" s="3">
         <v>45064</v>
       </c>
-      <c r="CI1" s="6">
+      <c r="CI1" s="3">
         <v>45065</v>
       </c>
     </row>
@@ -1423,6 +1420,9 @@
       <c r="CF3" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="CG3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1677,6 +1677,9 @@
       <c r="CF4" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CG4" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1931,6 +1934,9 @@
       <c r="CF5" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CG5" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2185,6 +2191,9 @@
       <c r="CF6" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CG6" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2439,7 +2448,9 @@
       <c r="CF7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="CG7" s="2"/>
+      <c r="CG7" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2694,6 +2705,9 @@
       <c r="CF8" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CG8" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2948,6 +2962,9 @@
       <c r="CF9" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CG9" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3202,6 +3219,9 @@
       <c r="CF10" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CG10" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3456,6 +3476,9 @@
       <c r="CF11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CG11" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3710,6 +3733,9 @@
       <c r="CF12" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CG12" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3964,6 +3990,9 @@
       <c r="CF13" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CG13" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4218,6 +4247,9 @@
       <c r="CF14" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CG14" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4472,6 +4504,9 @@
       <c r="CF15" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CG15" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4726,8 +4761,11 @@
       <c r="CF16" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CG16" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4980,8 +5018,11 @@
       <c r="CF17" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CG17" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5234,8 +5275,11 @@
       <c r="CF18" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CG18" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5488,8 +5532,11 @@
       <c r="CF19" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CG19" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5742,8 +5789,11 @@
       <c r="CF20" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CG20" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5996,8 +6046,11 @@
       <c r="CF21" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CG21" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6250,8 +6303,11 @@
       <c r="CF22" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CG22" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6504,8 +6560,11 @@
       <c r="CF23" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CG23" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6758,8 +6817,11 @@
       <c r="CF24" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CG24" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7012,8 +7074,11 @@
       <c r="CF25" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CG25" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -7266,8 +7331,11 @@
       <c r="CF26" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CG26" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -7520,8 +7588,11 @@
       <c r="CF27" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CG27" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -7774,8 +7845,11 @@
       <c r="CF28" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CG28" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -8026,6 +8100,9 @@
         <v>32</v>
       </c>
       <c r="CF29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CG29" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FDDF68-0D46-4C87-A8AF-93607E52B785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CC48CB-82A7-4126-BF70-352375CFCBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -193,7 +193,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -599,11 +604,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:CI29"/>
+  <dimension ref="A1:CN29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CI11" sqref="CI11"/>
+      <pane xSplit="1" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,9 +650,11 @@
     <col min="80" max="82" width="7.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="83" max="84" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="85" max="87" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="88" max="89" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="90" max="92" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44949</v>
       </c>
@@ -903,8 +910,23 @@
       <c r="CI1" s="3">
         <v>45065</v>
       </c>
+      <c r="CJ1" s="1">
+        <v>45068</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>45069</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>45070</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>45071</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>45072</v>
+      </c>
     </row>
-    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1166,8 +1188,23 @@
       <c r="CI2" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="CJ2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="CL2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="CM2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="CN2" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1423,8 +1460,12 @@
       <c r="CG3" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CH3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CI3" s="2"/>
     </row>
-    <row r="4" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1680,8 +1721,11 @@
       <c r="CG4" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CH4" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1937,8 +1981,11 @@
       <c r="CG5" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CH5" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2241,11 @@
       <c r="CG6" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CH6" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2451,8 +2501,11 @@
       <c r="CG7" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CH7" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2708,8 +2761,11 @@
       <c r="CG8" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CH8" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2965,8 +3021,11 @@
       <c r="CG9" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CH9" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3222,8 +3281,11 @@
       <c r="CG10" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CH10" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3479,8 +3541,11 @@
       <c r="CG11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CH11" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="12" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3736,8 +3801,11 @@
       <c r="CG12" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CH12" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="13" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3993,8 +4061,11 @@
       <c r="CG13" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CH13" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="14" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4250,8 +4321,11 @@
       <c r="CG14" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CH14" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="15" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -4502,13 +4576,16 @@
         <v>33</v>
       </c>
       <c r="CF15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="CG15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="CH15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -4764,8 +4841,11 @@
       <c r="CG16" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CH16" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="17" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5021,8 +5101,11 @@
       <c r="CG17" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CH17" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="18" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5278,8 +5361,11 @@
       <c r="CG18" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CH18" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="19" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5535,8 +5621,11 @@
       <c r="CG19" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CH19" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="20" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5792,8 +5881,11 @@
       <c r="CG20" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CH20" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="21" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -6049,8 +6141,11 @@
       <c r="CG21" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CH21" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="22" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6306,8 +6401,11 @@
       <c r="CG22" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CH22" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="23" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6563,8 +6661,11 @@
       <c r="CG23" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CH23" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="24" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6820,8 +6921,11 @@
       <c r="CG24" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CH24" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="25" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7077,8 +7181,11 @@
       <c r="CG25" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CH25" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="26" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -7334,8 +7441,11 @@
       <c r="CG26" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CH26" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="27" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -7591,8 +7701,11 @@
       <c r="CG27" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CH27" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="28" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -7848,8 +7961,11 @@
       <c r="CG28" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CH28" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="29" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -8103,96 +8219,104 @@
         <v>32</v>
       </c>
       <c r="CG29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CH29" s="2" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3 A3:D6 G3:BD3 E4:I6 J4:V14 A7:I14 A15:V29 A31:XFD1048576 A30:BT30 W4:BD29 BE3:BT29 BU3:XFD30 A1:XFD2">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D6 E3 G3:V3 E4:I6 J4:V14 C7:I14 C15:V29">
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I2">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:N2">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:N2">
+  <conditionalFormatting sqref="R2:S2">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:S2">
+  <conditionalFormatting sqref="W2:X2">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:X2">
+  <conditionalFormatting sqref="AB2:AC2">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AC2">
+  <conditionalFormatting sqref="AG2:AH2">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AH2">
+  <conditionalFormatting sqref="AL2:AM2">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AM2">
+  <conditionalFormatting sqref="AQ2:AR2">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ2:AR2">
+  <conditionalFormatting sqref="AV2:AW2">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV2:AW2">
+  <conditionalFormatting sqref="BA2:BB2">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA2:BB2">
+  <conditionalFormatting sqref="BF2:BG2">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF2:BG2">
+  <conditionalFormatting sqref="BK2:BL2">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK2:BL2">
+  <conditionalFormatting sqref="BP2:BQ2">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP2:BQ2">
+  <conditionalFormatting sqref="BU2:BV2">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU2:BV2">
+  <conditionalFormatting sqref="BZ2:CA2">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ2:CA2">
+  <conditionalFormatting sqref="CE2:CF2">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE2:CF2">
+  <conditionalFormatting sqref="CJ2:CK2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,24 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CC48CB-82A7-4126-BF70-352375CFCBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBD66B5-5BFC-4938-949C-D4817AC58159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
+    <sheet name="Transpor" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4689" uniqueCount="43">
   <si>
     <t>Aluno</t>
   </si>
@@ -140,6 +152,21 @@
   <si>
     <t>Feriado</t>
   </si>
+  <si>
+    <t>Componente</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Frequência</t>
+  </si>
+  <si>
+    <t>Faltas</t>
+  </si>
+  <si>
+    <t>Presenças</t>
+  </si>
 </sst>
 </file>
 
@@ -193,7 +220,187 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="52">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -607,8 +814,8 @@
   <dimension ref="A1:CN29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1"/>
+      <pane xSplit="1" topLeftCell="BS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CL12" sqref="CL12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,7 +1670,9 @@
       <c r="CH3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="CI3" s="2"/>
+      <c r="CI3" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1724,6 +1933,9 @@
       <c r="CH4" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CI4" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1984,6 +2196,9 @@
       <c r="CH5" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CI5" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2244,6 +2459,9 @@
       <c r="CH6" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CI6" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2504,6 +2722,9 @@
       <c r="CH7" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CI7" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2764,6 +2985,9 @@
       <c r="CH8" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CI8" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3024,6 +3248,9 @@
       <c r="CH9" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CI9" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3284,6 +3511,9 @@
       <c r="CH10" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CI10" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3544,6 +3774,9 @@
       <c r="CH11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CI11" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3804,6 +4037,9 @@
       <c r="CH12" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CI12" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4064,6 +4300,9 @@
       <c r="CH13" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CI13" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4324,6 +4563,9 @@
       <c r="CH14" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="CI14" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4584,6 +4826,9 @@
       <c r="CH15" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CI15" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4844,8 +5089,11 @@
       <c r="CH16" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CI16" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5104,8 +5352,11 @@
       <c r="CH17" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CI17" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="18" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5364,8 +5615,11 @@
       <c r="CH18" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CI18" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="19" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5624,8 +5878,11 @@
       <c r="CH19" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CI19" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="20" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5884,8 +6141,11 @@
       <c r="CH20" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CI20" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="21" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -6144,8 +6404,11 @@
       <c r="CH21" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CI21" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="22" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6404,8 +6667,11 @@
       <c r="CH22" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CI22" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="23" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6664,8 +6930,11 @@
       <c r="CH23" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CI23" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="24" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6924,8 +7193,11 @@
       <c r="CH24" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CI24" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="25" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7184,8 +7456,11 @@
       <c r="CH25" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CI25" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="26" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -7444,8 +7719,11 @@
       <c r="CH26" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CI26" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="27" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -7704,8 +7982,11 @@
       <c r="CH27" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CI27" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="28" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -7964,8 +8245,11 @@
       <c r="CH28" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CI28" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="29" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -8222,106 +8506,7791 @@
         <v>32</v>
       </c>
       <c r="CH29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CI29" s="2" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3 A3:D6 G3:BD3 E4:I6 J4:V14 A7:I14 A15:V29 A31:XFD1048576 A30:BT30 W4:BD29 BE3:BT29 BU3:XFD30 A1:XFD2">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="19" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D6 E3 G3:V3 E4:I6 J4:V14 C7:I14 C15:V29">
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="20" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I2">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="17" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:N2">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="16" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:S2">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="15" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:X2">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AC2">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="13" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AH2">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="12" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL2:AM2">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ2:AR2">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="10" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV2:AW2">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA2:BB2">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF2:BG2">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK2:BL2">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP2:BQ2">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU2:BV2">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ2:CA2">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE2:CF2">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ2:CK2">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8885BA-C8C9-4A39-9148-D2DAC913D21F}">
+  <dimension ref="A1:AC89"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="U70" sqref="U70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44949</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44950</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44953</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44956</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44959</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44960</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44963</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44964</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44965</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44966</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44967</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44972</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44973</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44979</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>44980</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>44981</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>44984</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44985</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>44986</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44987</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>44988</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44991</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>44992</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC31" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>44993</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC32" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC33" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>44995</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC34" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>44998</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC35" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>44999</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC36" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>45000</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC37" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>45001</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC38" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>45002</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC39" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>45005</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC40" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>45006</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC41" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>45007</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC42" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>45008</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC43" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>45009</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC44" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>45012</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC45" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>45013</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC46" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>45014</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC47" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>45015</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC48" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>45016</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC49" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>45019</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC50" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>45020</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC51" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>45021</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC52" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>45022</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC53" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>45026</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC54" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>45027</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC55" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>45028</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC56" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>45029</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC57" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>45030</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC58" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>45033</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC59" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>45034</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC60" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>45035</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC61" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>45036</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC62" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>45040</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC63" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>45041</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC64" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>45042</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC65" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>45043</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC66" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>45044</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC67" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>45048</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC68" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>45049</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC69" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>45050</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC70" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>45051</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC71" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>45054</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC72" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>45055</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC73" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>45056</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC74" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>45057</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC75" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>45058</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC76" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>45061</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC77" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>45062</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC78" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>45063</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB79" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC79" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>45064</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC80" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>45065</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V81" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC81" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84">
+        <f>COUNTIF($B$2:$B$81,A84)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85">
+        <f>COUNTIF($B$2:$B$81,A85)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>30</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ref="B85:B86" si="0">COUNTIF($B$2:$B$81,A86)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f>SUM(B84:B86)</f>
+        <v>80</v>
+      </c>
+      <c r="B87" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87">
+        <f>COUNTIF(C$2:C$81,"P")</f>
+        <v>65</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ref="D84:AC87" si="1">COUNTIF(D$2:D$81,"P")</f>
+        <v>69</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="W87">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="Y87">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="Z87">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="AA87">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="AB87">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="AC87">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88">
+        <f>C87*100/$A$87</f>
+        <v>81.25</v>
+      </c>
+      <c r="D88">
+        <f>D87*100/$A$87</f>
+        <v>86.25</v>
+      </c>
+      <c r="E88">
+        <f>E87*100/$A$87</f>
+        <v>25</v>
+      </c>
+      <c r="F88">
+        <f>F87*100/$A$87</f>
+        <v>95</v>
+      </c>
+      <c r="G88">
+        <f>G87*100/$A$87</f>
+        <v>71.25</v>
+      </c>
+      <c r="H88">
+        <f>H87*100/$A$87</f>
+        <v>85</v>
+      </c>
+      <c r="I88">
+        <f>I87*100/$A$87</f>
+        <v>76.25</v>
+      </c>
+      <c r="J88">
+        <f>J87*100/$A$87</f>
+        <v>91.25</v>
+      </c>
+      <c r="K88">
+        <f>K87*100/$A$87</f>
+        <v>97.5</v>
+      </c>
+      <c r="L88">
+        <f>L87*100/$A$87</f>
+        <v>91.25</v>
+      </c>
+      <c r="M88">
+        <f>M87*100/$A$87</f>
+        <v>97.5</v>
+      </c>
+      <c r="N88">
+        <f>N87*100/$A$87</f>
+        <v>92.5</v>
+      </c>
+      <c r="O88">
+        <f>O87*100/$A$87</f>
+        <v>57.5</v>
+      </c>
+      <c r="P88">
+        <f>P87*100/$A$87</f>
+        <v>88.75</v>
+      </c>
+      <c r="Q88">
+        <f>Q87*100/$A$87</f>
+        <v>97.5</v>
+      </c>
+      <c r="R88">
+        <f>R87*100/$A$87</f>
+        <v>71.25</v>
+      </c>
+      <c r="S88">
+        <f>S87*100/$A$87</f>
+        <v>93.75</v>
+      </c>
+      <c r="T88">
+        <f>T87*100/$A$87</f>
+        <v>22.5</v>
+      </c>
+      <c r="U88">
+        <f>U87*100/$A$87</f>
+        <v>91.25</v>
+      </c>
+      <c r="V88">
+        <f>V87*100/$A$87</f>
+        <v>82.5</v>
+      </c>
+      <c r="W88">
+        <f>W87*100/$A$87</f>
+        <v>91.25</v>
+      </c>
+      <c r="X88">
+        <f>X87*100/$A$87</f>
+        <v>98.75</v>
+      </c>
+      <c r="Y88">
+        <f>Y87*100/$A$87</f>
+        <v>91.25</v>
+      </c>
+      <c r="Z88">
+        <f>Z87*100/$A$87</f>
+        <v>96.25</v>
+      </c>
+      <c r="AA88">
+        <f>AA87*100/$A$87</f>
+        <v>85</v>
+      </c>
+      <c r="AB88">
+        <f>AB87*100/$A$87</f>
+        <v>76.25</v>
+      </c>
+      <c r="AC88">
+        <f>AC87*100/$A$87</f>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89">
+        <f>$A$87-C87</f>
+        <v>15</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ref="D89:AC89" si="2">$A$87-D87</f>
+        <v>11</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y89">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="Z89">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AA89">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AB89">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="AC89">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C4 D4:F8 D9:N21 C1:F3 G1:N8 O1:AC21 C6:C21 C22:AC81 A1:B81">
+    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:F3 C4 C6:C21 D4:F8 D9:N21 G2:N8 O2:AC21 B68">
+    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B8">
+    <cfRule type="cellIs" dxfId="30" priority="17" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B13">
+    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B18">
+    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B26">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:B31">
+    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:B36">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:B41">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:B46">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:B51">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:B55">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59:B60">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:B64">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72:B73">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77:B78">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C88:AC88">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>75</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,36 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBD66B5-5BFC-4938-949C-D4817AC58159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC0B521-99A8-440F-8298-ACDDB21B5EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
-    <sheet name="Transpor" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4689" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -152,21 +140,6 @@
   <si>
     <t>Feriado</t>
   </si>
-  <si>
-    <t>Componente</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Frequência</t>
-  </si>
-  <si>
-    <t>Faltas</t>
-  </si>
-  <si>
-    <t>Presenças</t>
-  </si>
 </sst>
 </file>
 
@@ -220,187 +193,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -814,8 +607,8 @@
   <dimension ref="A1:CN29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CL12" sqref="CL12"/>
+      <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CB13" sqref="CB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2152,7 +1945,7 @@
         <v>33</v>
       </c>
       <c r="BT5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BU5" s="2" t="s">
         <v>37</v>
@@ -2507,7 +2300,7 @@
         <v>32</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>32</v>
@@ -2516,7 +2309,7 @@
         <v>32</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>32</v>
@@ -2528,7 +2321,7 @@
         <v>33</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -2660,7 +2453,7 @@
         <v>32</v>
       </c>
       <c r="BN7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BO7" s="2" t="s">
         <v>37</v>
@@ -2675,7 +2468,7 @@
         <v>33</v>
       </c>
       <c r="BS7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BT7" s="2" t="s">
         <v>32</v>
@@ -2702,7 +2495,7 @@
         <v>33</v>
       </c>
       <c r="CB7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="CC7" s="2" t="s">
         <v>32</v>
@@ -2711,10 +2504,10 @@
         <v>32</v>
       </c>
       <c r="CE7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="CF7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="CG7" s="2" t="s">
         <v>33</v>
@@ -4788,7 +4581,7 @@
         <v>37</v>
       </c>
       <c r="BV15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BW15" s="2" t="s">
         <v>33</v>
@@ -8514,7783 +8307,101 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3 A3:D6 G3:BD3 E4:I6 J4:V14 A7:I14 A15:V29 A31:XFD1048576 A30:BT30 W4:BD29 BE3:BT29 BU3:XFD30 A1:XFD2">
-    <cfRule type="cellIs" dxfId="51" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D6 E3 G3:V3 E4:I6 J4:V14 C7:I14 C15:V29">
-    <cfRule type="cellIs" dxfId="50" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I2">
-    <cfRule type="cellIs" dxfId="49" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:N2">
-    <cfRule type="cellIs" dxfId="48" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:S2">
-    <cfRule type="cellIs" dxfId="47" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:X2">
-    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AC2">
-    <cfRule type="cellIs" dxfId="45" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AH2">
-    <cfRule type="cellIs" dxfId="44" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL2:AM2">
-    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ2:AR2">
-    <cfRule type="cellIs" dxfId="42" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV2:AW2">
-    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA2:BB2">
-    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF2:BG2">
-    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK2:BL2">
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP2:BQ2">
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU2:BV2">
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ2:CA2">
-    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE2:CF2">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ2:CK2">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8885BA-C8C9-4A39-9148-D2DAC913D21F}">
-  <dimension ref="A1:AC89"/>
-  <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="U70" sqref="U70"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>44949</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44950</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44951</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44952</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44953</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>44956</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44957</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44958</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44959</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>44960</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44963</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>44964</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>44965</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>44966</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>44967</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC16" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>44970</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC17" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>44971</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>44972</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>44973</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC20" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>44974</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC21" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>44979</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC22" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>44980</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>44981</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC24" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>44984</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC25" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>44985</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC26" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>44986</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC27" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>44987</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC28" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>44988</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC29" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>44991</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC30" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>44992</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T31" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC31" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>44993</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="V32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC32" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>44994</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC33" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>44995</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC34" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>44998</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="U35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC35" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>44999</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T36" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y36" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC36" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>45000</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O37" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R37" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T37" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC37" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>45001</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="X38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC38" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>45002</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T39" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC39" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>45005</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T40" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC40" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>45006</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O41" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T41" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC41" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>45007</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T42" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC42" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>45008</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O43" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T43" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB43" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC43" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>45009</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="X44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC44" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>45012</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC45" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>45013</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC46" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>45014</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC47" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>45015</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC48" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>45016</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC49" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>45019</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC50" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>45020</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC51" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>45021</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC52" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>45022</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC53" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>45026</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T54" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC54" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>45027</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC55" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>45028</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC56" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>45029</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC57" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>45030</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC58" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>45033</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R59" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V59" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC59" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>45034</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC60" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>45035</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T61" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC61" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>45036</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC62" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>45040</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC63" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>45041</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC64" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <v>45042</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T65" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC65" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>45043</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R66" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T66" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y66" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB66" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC66" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>45044</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T67" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC67" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>45048</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC68" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>45049</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC69" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>45050</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC70" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>45051</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T71" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC71" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>45054</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O72" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T72" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC72" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>45055</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC73" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>45056</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC74" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>45057</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T75" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC75" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>45058</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R76" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T76" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB76" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC76" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>45061</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O77" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R77" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T77" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB77" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC77" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <v>45062</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T78" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC78" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <v>45063</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R79" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T79" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB79" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC79" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>45064</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T80" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V80" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC80" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <v>45065</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O81" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P81" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T81" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V81" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC81" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>29</v>
-      </c>
-      <c r="B84">
-        <f>COUNTIF($B$2:$B$81,A84)</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>31</v>
-      </c>
-      <c r="B85">
-        <f>COUNTIF($B$2:$B$81,A85)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>30</v>
-      </c>
-      <c r="B86">
-        <f t="shared" ref="B85:B86" si="0">COUNTIF($B$2:$B$81,A86)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <f>SUM(B84:B86)</f>
-        <v>80</v>
-      </c>
-      <c r="B87" t="s">
-        <v>42</v>
-      </c>
-      <c r="C87">
-        <f>COUNTIF(C$2:C$81,"P")</f>
-        <v>65</v>
-      </c>
-      <c r="D87">
-        <f t="shared" ref="D84:AC87" si="1">COUNTIF(D$2:D$81,"P")</f>
-        <v>69</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="I87">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="J87">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="K87">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="L87">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="M87">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="N87">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="O87">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="P87">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="Q87">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="R87">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="S87">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="T87">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="U87">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="V87">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="W87">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="X87">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="Y87">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="Z87">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="AA87">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="AB87">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="AC87">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>40</v>
-      </c>
-      <c r="C88">
-        <f>C87*100/$A$87</f>
-        <v>81.25</v>
-      </c>
-      <c r="D88">
-        <f>D87*100/$A$87</f>
-        <v>86.25</v>
-      </c>
-      <c r="E88">
-        <f>E87*100/$A$87</f>
-        <v>25</v>
-      </c>
-      <c r="F88">
-        <f>F87*100/$A$87</f>
-        <v>95</v>
-      </c>
-      <c r="G88">
-        <f>G87*100/$A$87</f>
-        <v>71.25</v>
-      </c>
-      <c r="H88">
-        <f>H87*100/$A$87</f>
-        <v>85</v>
-      </c>
-      <c r="I88">
-        <f>I87*100/$A$87</f>
-        <v>76.25</v>
-      </c>
-      <c r="J88">
-        <f>J87*100/$A$87</f>
-        <v>91.25</v>
-      </c>
-      <c r="K88">
-        <f>K87*100/$A$87</f>
-        <v>97.5</v>
-      </c>
-      <c r="L88">
-        <f>L87*100/$A$87</f>
-        <v>91.25</v>
-      </c>
-      <c r="M88">
-        <f>M87*100/$A$87</f>
-        <v>97.5</v>
-      </c>
-      <c r="N88">
-        <f>N87*100/$A$87</f>
-        <v>92.5</v>
-      </c>
-      <c r="O88">
-        <f>O87*100/$A$87</f>
-        <v>57.5</v>
-      </c>
-      <c r="P88">
-        <f>P87*100/$A$87</f>
-        <v>88.75</v>
-      </c>
-      <c r="Q88">
-        <f>Q87*100/$A$87</f>
-        <v>97.5</v>
-      </c>
-      <c r="R88">
-        <f>R87*100/$A$87</f>
-        <v>71.25</v>
-      </c>
-      <c r="S88">
-        <f>S87*100/$A$87</f>
-        <v>93.75</v>
-      </c>
-      <c r="T88">
-        <f>T87*100/$A$87</f>
-        <v>22.5</v>
-      </c>
-      <c r="U88">
-        <f>U87*100/$A$87</f>
-        <v>91.25</v>
-      </c>
-      <c r="V88">
-        <f>V87*100/$A$87</f>
-        <v>82.5</v>
-      </c>
-      <c r="W88">
-        <f>W87*100/$A$87</f>
-        <v>91.25</v>
-      </c>
-      <c r="X88">
-        <f>X87*100/$A$87</f>
-        <v>98.75</v>
-      </c>
-      <c r="Y88">
-        <f>Y87*100/$A$87</f>
-        <v>91.25</v>
-      </c>
-      <c r="Z88">
-        <f>Z87*100/$A$87</f>
-        <v>96.25</v>
-      </c>
-      <c r="AA88">
-        <f>AA87*100/$A$87</f>
-        <v>85</v>
-      </c>
-      <c r="AB88">
-        <f>AB87*100/$A$87</f>
-        <v>76.25</v>
-      </c>
-      <c r="AC88">
-        <f>AC87*100/$A$87</f>
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>41</v>
-      </c>
-      <c r="C89">
-        <f>$A$87-C87</f>
-        <v>15</v>
-      </c>
-      <c r="D89">
-        <f t="shared" ref="D89:AC89" si="2">$A$87-D87</f>
-        <v>11</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="F89">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="I89">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="J89">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="K89">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L89">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="M89">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="N89">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="O89">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="P89">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="Q89">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="R89">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="S89">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="T89">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="U89">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="V89">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="W89">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="X89">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Y89">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Z89">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AA89">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="AB89">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="AC89">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C4 D4:F8 D9:N21 C1:F3 G1:N8 O1:AC21 C6:C21 C22:AC81 A1:B81">
-    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:F3 C4 C6:C21 D4:F8 D9:N21 G2:N8 O2:AC21 B68">
-    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B8">
-    <cfRule type="cellIs" dxfId="30" priority="17" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B13">
-    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B18">
-    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:B26">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:B31">
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B36">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40:B41">
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45:B46">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B51">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54:B55">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59:B60">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B64">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72:B73">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77:B78">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C88:AC88">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>75</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBD66B5-5BFC-4938-949C-D4817AC58159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBE8C2A-B1F2-4497-8B0A-6D272EF1AC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4689" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4743" uniqueCount="43">
   <si>
     <t>Aluno</t>
   </si>
@@ -220,92 +220,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -815,7 +730,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CL12" sqref="CL12"/>
+      <selection pane="topRight" activeCell="CK29" sqref="CK29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,6 +1588,12 @@
       <c r="CI3" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CJ3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CK3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1936,6 +1857,12 @@
       <c r="CI4" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CJ4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CK4" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2199,6 +2126,12 @@
       <c r="CI5" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CJ5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CK5" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2462,6 +2395,12 @@
       <c r="CI6" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CJ6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CK6" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2725,6 +2664,12 @@
       <c r="CI7" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CJ7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CK7" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2988,6 +2933,12 @@
       <c r="CI8" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CJ8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CK8" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3251,6 +3202,12 @@
       <c r="CI9" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CJ9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CK9" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3514,6 +3471,12 @@
       <c r="CI10" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CJ10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CK10" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3777,6 +3740,12 @@
       <c r="CI11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CJ11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CK11" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4040,6 +4009,12 @@
       <c r="CI12" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CJ12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CK12" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4303,6 +4278,12 @@
       <c r="CI13" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CJ13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CK13" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4566,6 +4547,12 @@
       <c r="CI14" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CJ14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CK14" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4829,6 +4816,12 @@
       <c r="CI15" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CJ15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CK15" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5092,8 +5085,14 @@
       <c r="CI16" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CJ16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CK16" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="17" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5355,8 +5354,14 @@
       <c r="CI17" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CJ17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CK17" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="18" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5618,8 +5623,14 @@
       <c r="CI18" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CJ18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CK18" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="19" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5881,8 +5892,14 @@
       <c r="CI19" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CJ19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CK19" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="20" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -6144,8 +6161,14 @@
       <c r="CI20" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CJ20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CK20" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="21" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -6407,8 +6430,14 @@
       <c r="CI21" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CJ21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CK21" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="22" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6670,8 +6699,14 @@
       <c r="CI22" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CJ22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CK22" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="23" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6933,8 +6968,14 @@
       <c r="CI23" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CJ23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CK23" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="24" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -7196,8 +7237,14 @@
       <c r="CI24" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CJ24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CK24" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="25" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7459,8 +7506,14 @@
       <c r="CI25" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CJ25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CK25" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="26" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -7722,8 +7775,14 @@
       <c r="CI26" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CJ26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CK26" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="27" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -7985,8 +8044,14 @@
       <c r="CI27" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CJ27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CK27" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="28" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -8248,8 +8313,14 @@
       <c r="CI28" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CJ28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CK28" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="29" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -8509,102 +8580,108 @@
         <v>32</v>
       </c>
       <c r="CI29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CJ29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CK29" s="2" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3 A3:D6 G3:BD3 E4:I6 J4:V14 A7:I14 A15:V29 A31:XFD1048576 A30:BT30 W4:BD29 BE3:BT29 BU3:XFD30 A1:XFD2">
-    <cfRule type="cellIs" dxfId="51" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="19" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D6 E3 G3:V3 E4:I6 J4:V14 C7:I14 C15:V29">
-    <cfRule type="cellIs" dxfId="50" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I2">
-    <cfRule type="cellIs" dxfId="49" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:N2">
-    <cfRule type="cellIs" dxfId="48" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:S2">
-    <cfRule type="cellIs" dxfId="47" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:X2">
-    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AC2">
-    <cfRule type="cellIs" dxfId="45" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AH2">
-    <cfRule type="cellIs" dxfId="44" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL2:AM2">
-    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ2:AR2">
-    <cfRule type="cellIs" dxfId="42" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV2:AW2">
-    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA2:BB2">
-    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF2:BG2">
-    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK2:BL2">
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP2:BQ2">
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU2:BV2">
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ2:CA2">
-    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE2:CF2">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ2:CK2">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15858,7 +15935,7 @@
         <v>30</v>
       </c>
       <c r="B86">
-        <f t="shared" ref="B85:B86" si="0">COUNTIF($B$2:$B$81,A86)</f>
+        <f t="shared" ref="B86" si="0">COUNTIF($B$2:$B$81,A86)</f>
         <v>16</v>
       </c>
     </row>
@@ -15875,7 +15952,7 @@
         <v>65</v>
       </c>
       <c r="D87">
-        <f t="shared" ref="D84:AC87" si="1">COUNTIF(D$2:D$81,"P")</f>
+        <f t="shared" ref="D87:AC87" si="1">COUNTIF(D$2:D$81,"P")</f>
         <v>69</v>
       </c>
       <c r="E87">
@@ -15984,111 +16061,111 @@
         <v>40</v>
       </c>
       <c r="C88">
-        <f>C87*100/$A$87</f>
+        <f t="shared" ref="C88:AC88" si="2">C87*100/$A$87</f>
         <v>81.25</v>
       </c>
       <c r="D88">
-        <f>D87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>86.25</v>
       </c>
       <c r="E88">
-        <f>E87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="F88">
-        <f>F87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="G88">
-        <f>G87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>71.25</v>
       </c>
       <c r="H88">
-        <f>H87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="I88">
-        <f>I87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>76.25</v>
       </c>
       <c r="J88">
-        <f>J87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>91.25</v>
       </c>
       <c r="K88">
-        <f>K87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>97.5</v>
       </c>
       <c r="L88">
-        <f>L87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>91.25</v>
       </c>
       <c r="M88">
-        <f>M87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>97.5</v>
       </c>
       <c r="N88">
-        <f>N87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>92.5</v>
       </c>
       <c r="O88">
-        <f>O87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>57.5</v>
       </c>
       <c r="P88">
-        <f>P87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>88.75</v>
       </c>
       <c r="Q88">
-        <f>Q87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>97.5</v>
       </c>
       <c r="R88">
-        <f>R87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>71.25</v>
       </c>
       <c r="S88">
-        <f>S87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>93.75</v>
       </c>
       <c r="T88">
-        <f>T87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>22.5</v>
       </c>
       <c r="U88">
-        <f>U87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>91.25</v>
       </c>
       <c r="V88">
-        <f>V87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>82.5</v>
       </c>
       <c r="W88">
-        <f>W87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>91.25</v>
       </c>
       <c r="X88">
-        <f>X87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>98.75</v>
       </c>
       <c r="Y88">
-        <f>Y87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>91.25</v>
       </c>
       <c r="Z88">
-        <f>Z87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>96.25</v>
       </c>
       <c r="AA88">
-        <f>AA87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="AB88">
-        <f>AB87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>76.25</v>
       </c>
       <c r="AC88">
-        <f>AC87*100/$A$87</f>
+        <f t="shared" si="2"/>
         <v>97.5</v>
       </c>
     </row>
@@ -16101,188 +16178,188 @@
         <v>15</v>
       </c>
       <c r="D89">
-        <f t="shared" ref="D89:AC89" si="2">$A$87-D87</f>
+        <f t="shared" ref="D89:AC89" si="3">$A$87-D87</f>
         <v>11</v>
       </c>
       <c r="E89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="F89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="H89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="I89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="J89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="K89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="M89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="N89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="O89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="P89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="R89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="S89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="T89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="U89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="V89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="W89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="X89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Y89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="Z89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AA89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="AB89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="AC89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4 D4:F8 D9:N21 C1:F3 G1:N8 O1:AC21 C6:C21 C22:AC81 A1:B81">
-    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3 C4 C6:C21 D4:F8 D9:N21 G2:N8 O2:AC21 B68">
-    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B8">
-    <cfRule type="cellIs" dxfId="30" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B13">
-    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B26">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B31">
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:B36">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:B41">
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B46">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B51">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:B55">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B60">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77:B78">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBE8C2A-B1F2-4497-8B0A-6D272EF1AC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE35880-0A6E-4231-A7CF-72BA562B4D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4743" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4770" uniqueCount="43">
   <si>
     <t>Aluno</t>
   </si>
@@ -730,7 +730,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CK29" sqref="CK29"/>
+      <selection pane="topRight" activeCell="CL30" sqref="CL30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,6 +1594,9 @@
       <c r="CK3" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CL3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1863,6 +1866,9 @@
       <c r="CK4" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CL4" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2132,6 +2138,9 @@
       <c r="CK5" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CL5" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2401,6 +2410,9 @@
       <c r="CK6" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CL6" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2670,6 +2682,9 @@
       <c r="CK7" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CL7" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2939,6 +2954,9 @@
       <c r="CK8" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CL8" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3208,6 +3226,9 @@
       <c r="CK9" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CL9" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3477,6 +3498,9 @@
       <c r="CK10" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CL10" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3746,6 +3770,9 @@
       <c r="CK11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CL11" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4015,6 +4042,9 @@
       <c r="CK12" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CL12" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4284,6 +4314,9 @@
       <c r="CK13" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CL13" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4553,6 +4586,9 @@
       <c r="CK14" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CL14" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4822,6 +4858,9 @@
       <c r="CK15" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CL15" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5091,8 +5130,11 @@
       <c r="CK16" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CL16" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5360,8 +5402,11 @@
       <c r="CK17" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CL17" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5629,8 +5674,11 @@
       <c r="CK18" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CL18" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5898,8 +5946,11 @@
       <c r="CK19" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CL19" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -6167,8 +6218,11 @@
       <c r="CK20" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CL20" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -6436,8 +6490,11 @@
       <c r="CK21" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CL21" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6705,8 +6762,11 @@
       <c r="CK22" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CL22" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6974,8 +7034,11 @@
       <c r="CK23" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CL23" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -7243,8 +7306,11 @@
       <c r="CK24" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CL24" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7512,8 +7578,11 @@
       <c r="CK25" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CL25" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -7781,8 +7850,11 @@
       <c r="CK26" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CL26" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -8050,8 +8122,11 @@
       <c r="CK27" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CL27" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="28" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -8319,8 +8394,11 @@
       <c r="CK28" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CL28" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="29" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -8586,6 +8664,9 @@
         <v>32</v>
       </c>
       <c r="CK29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CL29" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE35880-0A6E-4231-A7CF-72BA562B4D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF309F97-D9B6-44E0-A39E-C889EB1D4A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
-    <sheet name="Transpor" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4770" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -152,21 +151,6 @@
   <si>
     <t>Feriado</t>
   </si>
-  <si>
-    <t>Componente</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Frequência</t>
-  </si>
-  <si>
-    <t>Faltas</t>
-  </si>
-  <si>
-    <t>Presenças</t>
-  </si>
 </sst>
 </file>
 
@@ -220,102 +204,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -730,7 +619,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CL30" sqref="CL30"/>
+      <selection pane="topRight" activeCell="CM28" sqref="CM28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,6 +1486,9 @@
       <c r="CL3" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CM3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1869,6 +1761,9 @@
       <c r="CL4" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CM4" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2141,6 +2036,9 @@
       <c r="CL5" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CM5" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2413,6 +2311,9 @@
       <c r="CL6" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CM6" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2685,6 +2586,9 @@
       <c r="CL7" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CM7" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2957,6 +2861,9 @@
       <c r="CL8" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CM8" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3229,6 +3136,9 @@
       <c r="CL9" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CM9" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3501,6 +3411,9 @@
       <c r="CL10" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CM10" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3773,6 +3686,9 @@
       <c r="CL11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CM11" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4045,6 +3961,9 @@
       <c r="CL12" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CM12" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4317,6 +4236,9 @@
       <c r="CL13" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CM13" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4589,6 +4511,9 @@
       <c r="CL14" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CM14" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4861,6 +4786,9 @@
       <c r="CL15" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CM15" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5133,8 +5061,11 @@
       <c r="CL16" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CM16" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="17" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5405,8 +5336,11 @@
       <c r="CL17" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CM17" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="18" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5651,7 +5585,7 @@
         <v>32</v>
       </c>
       <c r="CD18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="CE18" s="2" t="s">
         <v>33</v>
@@ -5669,7 +5603,7 @@
         <v>32</v>
       </c>
       <c r="CJ18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="CK18" s="2" t="s">
         <v>32</v>
@@ -5677,8 +5611,11 @@
       <c r="CL18" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CM18" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="19" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5949,8 +5886,11 @@
       <c r="CL19" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CM19" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="20" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -6221,8 +6161,11 @@
       <c r="CL20" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CM20" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="21" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -6493,8 +6436,11 @@
       <c r="CL21" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CM21" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="22" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6765,8 +6711,11 @@
       <c r="CL22" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CM22" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="23" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7037,8 +6986,11 @@
       <c r="CL23" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CM23" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="24" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -7309,8 +7261,11 @@
       <c r="CL24" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CM24" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="25" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7581,8 +7536,11 @@
       <c r="CL25" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CM25" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="26" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -7853,8 +7811,11 @@
       <c r="CL26" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CM26" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="27" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -8125,8 +8086,11 @@
       <c r="CL27" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CM27" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="28" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -8397,8 +8361,11 @@
       <c r="CL28" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CM28" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="29" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -8667,7788 +8634,109 @@
         <v>32</v>
       </c>
       <c r="CL29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CM29" s="2" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3 A3:D6 G3:BD3 E4:I6 J4:V14 A7:I14 A15:V29 A31:XFD1048576 A30:BT30 W4:BD29 BE3:BT29 BU3:XFD30 A1:XFD2">
-    <cfRule type="cellIs" dxfId="35" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D6 E3 G3:V3 E4:I6 J4:V14 C7:I14 C15:V29">
-    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I2">
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:N2">
-    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:S2">
-    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:X2">
-    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AC2">
-    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AH2">
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL2:AM2">
-    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ2:AR2">
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV2:AW2">
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA2:BB2">
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF2:BG2">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK2:BL2">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP2:BQ2">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU2:BV2">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ2:CA2">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE2:CF2">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ2:CK2">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8885BA-C8C9-4A39-9148-D2DAC913D21F}">
-  <dimension ref="A1:AC89"/>
-  <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="U70" sqref="U70"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>44949</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44950</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44951</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44952</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44953</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>44956</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44957</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44958</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44959</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>44960</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44963</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>44964</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>44965</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>44966</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>44967</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC16" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>44970</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC17" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>44971</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>44972</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>44973</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC20" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>44974</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC21" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>44979</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC22" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>44980</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>44981</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC24" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>44984</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC25" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>44985</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC26" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>44986</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC27" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>44987</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC28" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>44988</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC29" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>44991</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC30" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>44992</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T31" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC31" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>44993</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="V32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC32" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>44994</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC33" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>44995</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC34" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>44998</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="U35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC35" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>44999</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T36" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y36" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC36" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>45000</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O37" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R37" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T37" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC37" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>45001</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="X38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC38" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>45002</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T39" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC39" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>45005</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T40" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC40" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>45006</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O41" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T41" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC41" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>45007</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T42" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC42" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>45008</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O43" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T43" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB43" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC43" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>45009</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="X44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC44" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>45012</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC45" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>45013</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC46" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>45014</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC47" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>45015</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC48" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>45016</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC49" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>45019</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC50" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>45020</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC51" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>45021</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC52" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>45022</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC53" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>45026</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T54" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC54" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>45027</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC55" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>45028</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC56" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>45029</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC57" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>45030</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC58" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>45033</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R59" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V59" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC59" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>45034</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC60" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>45035</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T61" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC61" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>45036</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC62" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>45040</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC63" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>45041</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC64" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <v>45042</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T65" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC65" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>45043</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R66" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T66" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y66" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB66" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC66" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>45044</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T67" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC67" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>45048</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC68" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>45049</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC69" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>45050</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC70" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>45051</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T71" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC71" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>45054</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O72" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T72" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC72" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>45055</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC73" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>45056</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC74" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>45057</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T75" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC75" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>45058</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R76" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T76" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB76" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC76" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>45061</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O77" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R77" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T77" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB77" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC77" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <v>45062</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T78" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC78" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <v>45063</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R79" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T79" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB79" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC79" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>45064</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T80" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V80" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC80" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <v>45065</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O81" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P81" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T81" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V81" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC81" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>29</v>
-      </c>
-      <c r="B84">
-        <f>COUNTIF($B$2:$B$81,A84)</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>31</v>
-      </c>
-      <c r="B85">
-        <f>COUNTIF($B$2:$B$81,A85)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>30</v>
-      </c>
-      <c r="B86">
-        <f t="shared" ref="B86" si="0">COUNTIF($B$2:$B$81,A86)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <f>SUM(B84:B86)</f>
-        <v>80</v>
-      </c>
-      <c r="B87" t="s">
-        <v>42</v>
-      </c>
-      <c r="C87">
-        <f>COUNTIF(C$2:C$81,"P")</f>
-        <v>65</v>
-      </c>
-      <c r="D87">
-        <f t="shared" ref="D87:AC87" si="1">COUNTIF(D$2:D$81,"P")</f>
-        <v>69</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="I87">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="J87">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="K87">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="L87">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="M87">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="N87">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="O87">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="P87">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="Q87">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="R87">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="S87">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="T87">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="U87">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="V87">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="W87">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="X87">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="Y87">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="Z87">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="AA87">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="AB87">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="AC87">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>40</v>
-      </c>
-      <c r="C88">
-        <f t="shared" ref="C88:AC88" si="2">C87*100/$A$87</f>
-        <v>81.25</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="2"/>
-        <v>86.25</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="F88">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="2"/>
-        <v>71.25</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="I88">
-        <f t="shared" si="2"/>
-        <v>76.25</v>
-      </c>
-      <c r="J88">
-        <f t="shared" si="2"/>
-        <v>91.25</v>
-      </c>
-      <c r="K88">
-        <f t="shared" si="2"/>
-        <v>97.5</v>
-      </c>
-      <c r="L88">
-        <f t="shared" si="2"/>
-        <v>91.25</v>
-      </c>
-      <c r="M88">
-        <f t="shared" si="2"/>
-        <v>97.5</v>
-      </c>
-      <c r="N88">
-        <f t="shared" si="2"/>
-        <v>92.5</v>
-      </c>
-      <c r="O88">
-        <f t="shared" si="2"/>
-        <v>57.5</v>
-      </c>
-      <c r="P88">
-        <f t="shared" si="2"/>
-        <v>88.75</v>
-      </c>
-      <c r="Q88">
-        <f t="shared" si="2"/>
-        <v>97.5</v>
-      </c>
-      <c r="R88">
-        <f t="shared" si="2"/>
-        <v>71.25</v>
-      </c>
-      <c r="S88">
-        <f t="shared" si="2"/>
-        <v>93.75</v>
-      </c>
-      <c r="T88">
-        <f t="shared" si="2"/>
-        <v>22.5</v>
-      </c>
-      <c r="U88">
-        <f t="shared" si="2"/>
-        <v>91.25</v>
-      </c>
-      <c r="V88">
-        <f t="shared" si="2"/>
-        <v>82.5</v>
-      </c>
-      <c r="W88">
-        <f t="shared" si="2"/>
-        <v>91.25</v>
-      </c>
-      <c r="X88">
-        <f t="shared" si="2"/>
-        <v>98.75</v>
-      </c>
-      <c r="Y88">
-        <f t="shared" si="2"/>
-        <v>91.25</v>
-      </c>
-      <c r="Z88">
-        <f t="shared" si="2"/>
-        <v>96.25</v>
-      </c>
-      <c r="AA88">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="AB88">
-        <f t="shared" si="2"/>
-        <v>76.25</v>
-      </c>
-      <c r="AC88">
-        <f t="shared" si="2"/>
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>41</v>
-      </c>
-      <c r="C89">
-        <f>$A$87-C87</f>
-        <v>15</v>
-      </c>
-      <c r="D89">
-        <f t="shared" ref="D89:AC89" si="3">$A$87-D87</f>
-        <v>11</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="F89">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="I89">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="J89">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="K89">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L89">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="M89">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="N89">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="O89">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="P89">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="Q89">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="R89">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="S89">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="T89">
-        <f t="shared" si="3"/>
-        <v>62</v>
-      </c>
-      <c r="U89">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="V89">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="W89">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="X89">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Y89">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="Z89">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AA89">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="AB89">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="AC89">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C4 D4:F8 D9:N21 C1:F3 G1:N8 O1:AC21 C6:C21 C22:AC81 A1:B81">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:F3 C4 C6:C21 D4:F8 D9:N21 G2:N8 O2:AC21 B68">
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B8">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B13">
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B18">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:B26">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:B31">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B36">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40:B41">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45:B46">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B51">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54:B55">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59:B60">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B64">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72:B73">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77:B78">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C88:AC88">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>75</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF309F97-D9B6-44E0-A39E-C889EB1D4A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F8647E-B576-4E14-86CE-40F20E37A2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -204,7 +204,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -615,11 +620,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:CN29"/>
+  <dimension ref="A1:CS29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CM28" sqref="CM28"/>
+      <selection pane="topRight" activeCell="CO3" sqref="CO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,9 +668,12 @@
     <col min="85" max="87" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="88" max="89" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="90" max="92" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="93" max="94" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="96" max="97" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:97" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44949</v>
       </c>
@@ -936,8 +944,23 @@
       <c r="CN1" s="1">
         <v>45072</v>
       </c>
+      <c r="CO1" s="1">
+        <v>45075</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>45076</v>
+      </c>
+      <c r="CQ1" s="1">
+        <v>45077</v>
+      </c>
+      <c r="CR1" s="1">
+        <v>45078</v>
+      </c>
+      <c r="CS1" s="1">
+        <v>45079</v>
+      </c>
     </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1214,8 +1237,23 @@
       <c r="CN2" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="CO2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CP2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="CQ2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="CR2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="CS2" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1489,8 +1527,11 @@
       <c r="CM3" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CN3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1764,8 +1805,11 @@
       <c r="CM4" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CN4" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2039,8 +2083,11 @@
       <c r="CM5" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CN5" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2314,8 +2361,11 @@
       <c r="CM6" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CN6" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2589,8 +2639,11 @@
       <c r="CM7" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CN7" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2864,8 +2917,11 @@
       <c r="CM8" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CN8" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3139,8 +3195,11 @@
       <c r="CM9" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CN9" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3414,8 +3473,11 @@
       <c r="CM10" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CN10" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3689,8 +3751,11 @@
       <c r="CM11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CN11" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3964,8 +4029,11 @@
       <c r="CM12" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CN12" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4239,8 +4307,11 @@
       <c r="CM13" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CN13" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4514,8 +4585,11 @@
       <c r="CM14" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CN14" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -4789,8 +4863,11 @@
       <c r="CM15" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CN15" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -5064,8 +5141,11 @@
       <c r="CM16" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CN16" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5339,8 +5419,11 @@
       <c r="CM17" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CN17" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="18" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5614,8 +5697,11 @@
       <c r="CM18" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CN18" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="19" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5889,8 +5975,11 @@
       <c r="CM19" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CN19" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="20" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -6164,8 +6253,11 @@
       <c r="CM20" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CN20" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="21" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -6439,8 +6531,11 @@
       <c r="CM21" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CN21" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="22" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6714,8 +6809,11 @@
       <c r="CM22" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CN22" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="23" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6989,8 +7087,11 @@
       <c r="CM23" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CN23" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="24" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -7264,8 +7365,11 @@
       <c r="CM24" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CN24" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="25" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7539,8 +7643,11 @@
       <c r="CM25" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CN25" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="26" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -7814,8 +7921,11 @@
       <c r="CM26" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CN26" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="27" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -8089,8 +8199,11 @@
       <c r="CM27" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CN27" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="28" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -8364,8 +8477,11 @@
       <c r="CM28" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CN28" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="29" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -8637,101 +8753,109 @@
         <v>32</v>
       </c>
       <c r="CM29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CN29" s="2" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3 A3:D6 G3:BD3 E4:I6 J4:V14 A7:I14 A15:V29 A31:XFD1048576 A30:BT30 W4:BD29 BE3:BT29 BU3:XFD30 A1:XFD2">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D6 E3 G3:V3 E4:I6 J4:V14 C7:I14 C15:V29">
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I2">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:N2">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:N2">
+  <conditionalFormatting sqref="R2:S2">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:S2">
+  <conditionalFormatting sqref="W2:X2">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:X2">
+  <conditionalFormatting sqref="AB2:AC2">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AC2">
+  <conditionalFormatting sqref="AG2:AH2">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AH2">
+  <conditionalFormatting sqref="AL2:AM2">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AM2">
+  <conditionalFormatting sqref="AQ2:AR2">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ2:AR2">
+  <conditionalFormatting sqref="AV2:AW2">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV2:AW2">
+  <conditionalFormatting sqref="BA2:BB2">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA2:BB2">
+  <conditionalFormatting sqref="BF2:BG2">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF2:BG2">
+  <conditionalFormatting sqref="BK2:BL2">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK2:BL2">
+  <conditionalFormatting sqref="BP2:BQ2">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP2:BQ2">
+  <conditionalFormatting sqref="BU2:BV2">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU2:BV2">
+  <conditionalFormatting sqref="BZ2:CA2">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ2:CA2">
+  <conditionalFormatting sqref="CE2:CF2">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE2:CF2">
+  <conditionalFormatting sqref="CJ2:CK2">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CJ2:CK2">
+  <conditionalFormatting sqref="CO2:CP2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F8647E-B576-4E14-86CE-40F20E37A2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB7B9BA-8076-452F-AE9C-1105217A0607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -623,8 +623,8 @@
   <dimension ref="A1:CS29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CO3" sqref="CO3"/>
+      <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CV28" sqref="CV28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,6 +1530,12 @@
       <c r="CN3" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CO3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1808,6 +1814,12 @@
       <c r="CN4" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CO4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP4" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2086,6 +2098,12 @@
       <c r="CN5" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CO5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP5" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2364,6 +2382,12 @@
       <c r="CN6" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CO6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP6" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2642,6 +2666,12 @@
       <c r="CN7" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CO7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CP7" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2920,6 +2950,12 @@
       <c r="CN8" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CO8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP8" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3198,6 +3234,12 @@
       <c r="CN9" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CO9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP9" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3476,6 +3518,12 @@
       <c r="CN10" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CO10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP10" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3754,6 +3802,12 @@
       <c r="CN11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CO11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP11" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4032,6 +4086,12 @@
       <c r="CN12" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CO12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP12" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4310,6 +4370,12 @@
       <c r="CN13" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CO13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP13" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4588,6 +4654,12 @@
       <c r="CN14" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CO14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP14" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4866,6 +4938,12 @@
       <c r="CN15" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CO15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP15" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5144,8 +5222,14 @@
       <c r="CN16" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CO16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP16" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5422,8 +5506,14 @@
       <c r="CN17" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CO17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP17" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="18" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5700,8 +5790,17 @@
       <c r="CN18" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CO18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CP18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CQ18" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="19" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5978,8 +6077,14 @@
       <c r="CN19" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CO19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP19" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="20" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -6256,8 +6361,14 @@
       <c r="CN20" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CO20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CP20" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="21" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -6534,8 +6645,14 @@
       <c r="CN21" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CO21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP21" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="22" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6812,8 +6929,14 @@
       <c r="CN22" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CO22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP22" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7090,8 +7213,14 @@
       <c r="CN23" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CO23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP23" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="24" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -7368,8 +7497,14 @@
       <c r="CN24" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CO24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP24" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="25" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7646,8 +7781,14 @@
       <c r="CN25" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CO25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP25" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="26" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -7924,8 +8065,14 @@
       <c r="CN26" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CO26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP26" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="27" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -8202,8 +8349,14 @@
       <c r="CN27" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CO27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP27" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="28" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -8480,8 +8633,14 @@
       <c r="CN28" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CO28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP28" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="29" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -8758,9 +8917,15 @@
       <c r="CN29" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CO29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP29" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3 A3:D6 G3:BD3 E4:I6 J4:V14 A7:I14 A15:V29 A31:XFD1048576 A30:BT30 W4:BD29 BE3:BT29 BU3:XFD30 A1:XFD2">
+  <conditionalFormatting sqref="E3 A3:D6 G3:BD3 E4:I6 J4:V14 A7:I14 A15:V29 A31:XFD1048576 A30:BT30 W4:BD29 BE3:BT29 A1:XFD2 BU3:XFD30">
     <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB7B9BA-8076-452F-AE9C-1105217A0607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13C505C-4A38-4CC8-A7C4-6E5235064522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -624,7 +624,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CV28" sqref="CV28"/>
+      <selection pane="topRight" activeCell="CQ28" sqref="CQ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,6 +1536,9 @@
       <c r="CP3" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CQ3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1820,6 +1823,9 @@
       <c r="CP4" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CQ4" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2104,6 +2110,9 @@
       <c r="CP5" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CQ5" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2388,6 +2397,9 @@
       <c r="CP6" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CQ6" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2672,6 +2684,9 @@
       <c r="CP7" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CQ7" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2956,6 +2971,9 @@
       <c r="CP8" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CQ8" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3240,6 +3258,9 @@
       <c r="CP9" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CQ9" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3524,6 +3545,9 @@
       <c r="CP10" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CQ10" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3808,6 +3832,9 @@
       <c r="CP11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CQ11" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4092,6 +4119,9 @@
       <c r="CP12" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CQ12" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4376,6 +4406,9 @@
       <c r="CP13" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CQ13" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4660,6 +4693,9 @@
       <c r="CP14" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CQ14" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4944,6 +4980,9 @@
       <c r="CP15" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CQ15" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5228,6 +5267,9 @@
       <c r="CP16" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CQ16" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -5512,6 +5554,9 @@
       <c r="CP17" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CQ17" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -5797,7 +5842,7 @@
         <v>32</v>
       </c>
       <c r="CQ18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:95" x14ac:dyDescent="0.25">
@@ -6083,6 +6128,9 @@
       <c r="CP19" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CQ19" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -6367,6 +6415,9 @@
       <c r="CP20" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CQ20" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -6651,6 +6702,9 @@
       <c r="CP21" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CQ21" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -6935,6 +6989,9 @@
       <c r="CP22" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CQ22" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="23" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -7219,6 +7276,9 @@
       <c r="CP23" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CQ23" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -7503,6 +7563,9 @@
       <c r="CP24" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CQ24" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="25" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -7787,6 +7850,9 @@
       <c r="CP25" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CQ25" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="26" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -8071,6 +8137,9 @@
       <c r="CP26" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CQ26" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -8355,6 +8424,9 @@
       <c r="CP27" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CQ27" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="28" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -8639,6 +8711,9 @@
       <c r="CP28" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CQ28" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -8921,6 +8996,9 @@
         <v>32</v>
       </c>
       <c r="CP29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CQ29" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13C505C-4A38-4CC8-A7C4-6E5235064522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E982FD5-1C65-402D-98D2-D7274E1EBCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -204,7 +204,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -620,11 +625,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:CS29"/>
+  <dimension ref="A1:CV29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CQ28" sqref="CQ28"/>
+      <selection pane="topRight" activeCell="CT1" sqref="CT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +678,7 @@
     <col min="96" max="97" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44949</v>
       </c>
@@ -959,8 +964,17 @@
       <c r="CS1" s="1">
         <v>45079</v>
       </c>
+      <c r="CT1" s="1">
+        <v>45082</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>45083</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>45084</v>
+      </c>
     </row>
-    <row r="2" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1252,8 +1266,17 @@
       <c r="CS2" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="CT2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="CV2" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1539,8 +1562,17 @@
       <c r="CQ3" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CR3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT3" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1826,8 +1858,17 @@
       <c r="CQ4" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CR4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT4" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2113,8 +2154,17 @@
       <c r="CQ5" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CR5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT5" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2400,8 +2450,17 @@
       <c r="CQ6" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CR6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT6" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2687,8 +2746,17 @@
       <c r="CQ7" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CR7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CT7" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="8" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2974,8 +3042,17 @@
       <c r="CQ8" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CR8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT8" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="9" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3261,8 +3338,17 @@
       <c r="CQ9" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CR9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT9" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="10" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3548,8 +3634,17 @@
       <c r="CQ10" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CR10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT10" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="11" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3835,8 +3930,17 @@
       <c r="CQ11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CR11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT11" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="12" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4122,8 +4226,17 @@
       <c r="CQ12" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CR12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT12" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="13" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4409,8 +4522,17 @@
       <c r="CQ13" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CR13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT13" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="14" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4696,8 +4818,17 @@
       <c r="CQ14" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CR14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT14" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="15" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -4983,8 +5114,17 @@
       <c r="CQ15" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CR15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT15" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="16" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -5270,8 +5410,17 @@
       <c r="CQ16" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CR16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT16" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="17" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5557,8 +5706,17 @@
       <c r="CQ17" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CR17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT17" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="18" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5844,8 +6002,17 @@
       <c r="CQ18" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CR18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT18" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="19" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6131,8 +6298,17 @@
       <c r="CQ19" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CR19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT19" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="20" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -6418,8 +6594,17 @@
       <c r="CQ20" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CR20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CT20" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="21" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -6705,8 +6890,17 @@
       <c r="CQ21" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CR21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT21" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="22" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6992,8 +7186,17 @@
       <c r="CQ22" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CR22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT22" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="23" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7279,8 +7482,17 @@
       <c r="CQ23" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CR23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT23" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="24" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -7566,8 +7778,17 @@
       <c r="CQ24" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CR24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT24" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="25" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7853,8 +8074,17 @@
       <c r="CQ25" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CR25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT25" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="26" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -8140,8 +8370,17 @@
       <c r="CQ26" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CR26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT26" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="27" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -8427,8 +8666,17 @@
       <c r="CQ27" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CR27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT27" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="28" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -8714,8 +8962,17 @@
       <c r="CQ28" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CR28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT28" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="29" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -9001,104 +9258,118 @@
       <c r="CQ29" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CR29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT29" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3 A3:D6 G3:BD3 E4:I6 J4:V14 A7:I14 A15:V29 A31:XFD1048576 A30:BT30 W4:BD29 BE3:BT29 A1:XFD2 BU3:XFD30">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+  <conditionalFormatting sqref="E3 A3:D6 G3:BD3 E4:I6 J4:V14 A7:I14 A15:V29 A30:BT30 W4:BD29 BE3:BT29 A31:XFD1048576 BU3:XFD30 A1:XFD2">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D6 E3 G3:V3 E4:I6 J4:V14 C7:I14 C15:V29">
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I2">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:N2">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:N2">
+  <conditionalFormatting sqref="R2:S2">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:S2">
+  <conditionalFormatting sqref="W2:X2">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:X2">
+  <conditionalFormatting sqref="AB2:AC2">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AC2">
+  <conditionalFormatting sqref="AG2:AH2">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AH2">
+  <conditionalFormatting sqref="AL2:AM2">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AM2">
+  <conditionalFormatting sqref="AQ2:AR2">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ2:AR2">
+  <conditionalFormatting sqref="AV2:AW2">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV2:AW2">
+  <conditionalFormatting sqref="BA2:BB2">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA2:BB2">
+  <conditionalFormatting sqref="BF2:BG2">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF2:BG2">
+  <conditionalFormatting sqref="BK2:BL2">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK2:BL2">
+  <conditionalFormatting sqref="BP2:BQ2">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP2:BQ2">
+  <conditionalFormatting sqref="BU2:BV2">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU2:BV2">
+  <conditionalFormatting sqref="BZ2:CA2">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ2:CA2">
+  <conditionalFormatting sqref="CE2:CF2">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE2:CF2">
+  <conditionalFormatting sqref="CJ2:CK2">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CJ2:CK2">
+  <conditionalFormatting sqref="CO2:CP2">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CO2:CP2">
+  <conditionalFormatting sqref="CT2:CU2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E982FD5-1C65-402D-98D2-D7274E1EBCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818D7FA9-2CB0-4F38-A65B-3F3CEE9B913F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -629,7 +629,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CT1" sqref="CT1"/>
+      <selection pane="topRight" activeCell="CV30" sqref="CV30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,6 +1571,12 @@
       <c r="CT3" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CU3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CV3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1867,6 +1873,12 @@
       <c r="CT4" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CU4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV4" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2163,6 +2175,12 @@
       <c r="CT5" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CU5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CV5" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2459,6 +2477,12 @@
       <c r="CT6" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CU6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CV6" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2755,6 +2779,12 @@
       <c r="CT7" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CU7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV7" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3051,6 +3081,12 @@
       <c r="CT8" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CU8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CV8" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3347,6 +3383,12 @@
       <c r="CT9" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CU9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV9" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3643,6 +3685,12 @@
       <c r="CT10" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CU10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV10" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3939,6 +3987,12 @@
       <c r="CT11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CU11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CV11" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4235,6 +4289,12 @@
       <c r="CT12" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CU12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CV12" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4531,6 +4591,12 @@
       <c r="CT13" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CU13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV13" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4827,6 +4893,12 @@
       <c r="CT14" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CU14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CV14" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5123,6 +5195,12 @@
       <c r="CT15" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CU15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV15" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5419,8 +5497,14 @@
       <c r="CT16" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CU16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV16" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="17" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5715,8 +5799,14 @@
       <c r="CT17" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CU17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CV17" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="18" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6011,8 +6101,14 @@
       <c r="CT18" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CU18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV18" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="19" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6307,8 +6403,14 @@
       <c r="CT19" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CU19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV19" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="20" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -6603,8 +6705,14 @@
       <c r="CT20" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CU20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV20" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="21" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -6899,8 +7007,14 @@
       <c r="CT21" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CU21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV21" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="22" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -7195,8 +7309,14 @@
       <c r="CT22" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CU22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV22" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="23" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7491,8 +7611,14 @@
       <c r="CT23" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CU23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV23" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="24" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -7787,8 +7913,14 @@
       <c r="CT24" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CU24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CV24" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="25" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -8083,8 +8215,14 @@
       <c r="CT25" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CU25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CV25" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="26" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -8379,8 +8517,14 @@
       <c r="CT26" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CU26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV26" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="27" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -8675,8 +8819,14 @@
       <c r="CT27" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CU27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CV27" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="28" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -8971,8 +9121,14 @@
       <c r="CT28" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CU28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CV28" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="29" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -9267,9 +9423,15 @@
       <c r="CT29" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CU29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CV29" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3 A3:D6 G3:BD3 E4:I6 J4:V14 A7:I14 A15:V29 A30:BT30 W4:BD29 BE3:BT29 A31:XFD1048576 BU3:XFD30 A1:XFD2">
+  <conditionalFormatting sqref="A1:XFD2 E3 G3:BD3 A3:D6 BE3:BT29 E4:I6 J4:V14 W4:BD29 A7:I14 A15:V29 A30:BT30 A31:XFD1048576 BU3:XFD30">
     <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818D7FA9-2CB0-4F38-A65B-3F3CEE9B913F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FC7492-D109-4726-A52E-7E6B7599C472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2805" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -204,7 +204,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -625,11 +630,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:CV29"/>
+  <dimension ref="A1:DA29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CV30" sqref="CV30"/>
+      <selection pane="topRight" activeCell="CX3" sqref="CX3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,9 +681,13 @@
     <col min="93" max="94" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="96" max="97" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="98" max="99" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="103" max="105" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:105" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44949</v>
       </c>
@@ -973,8 +982,23 @@
       <c r="CV1" s="1">
         <v>45084</v>
       </c>
+      <c r="CW1" s="1">
+        <v>45089</v>
+      </c>
+      <c r="CX1" s="1">
+        <v>45090</v>
+      </c>
+      <c r="CY1" s="1">
+        <v>45091</v>
+      </c>
+      <c r="CZ1" s="1">
+        <v>45092</v>
+      </c>
+      <c r="DA1" s="1">
+        <v>45093</v>
+      </c>
     </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1275,8 +1299,23 @@
       <c r="CV2" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="CW2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CX2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="CY2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="CZ2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="DA2" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1577,8 +1616,11 @@
       <c r="CV3" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CW3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1879,8 +1921,11 @@
       <c r="CV4" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CW4" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2179,10 +2224,13 @@
         <v>32</v>
       </c>
       <c r="CV5" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="CW5" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2483,8 +2531,11 @@
       <c r="CV6" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CW6" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2785,8 +2836,11 @@
       <c r="CV7" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CW7" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3087,8 +3141,11 @@
       <c r="CV8" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CW8" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3389,8 +3446,11 @@
       <c r="CV9" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CW9" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3691,8 +3751,11 @@
       <c r="CV10" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CW10" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3993,8 +4056,11 @@
       <c r="CV11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CW11" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="12" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4295,8 +4361,11 @@
       <c r="CV12" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CW12" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4597,8 +4666,11 @@
       <c r="CV13" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CW13" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="14" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4899,8 +4971,11 @@
       <c r="CV14" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CW14" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="15" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -5201,8 +5276,11 @@
       <c r="CV15" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CW15" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="16" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -5503,8 +5581,11 @@
       <c r="CV16" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CW16" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="17" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5805,8 +5886,11 @@
       <c r="CV17" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CW17" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="18" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6107,8 +6191,11 @@
       <c r="CV18" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CW18" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="19" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6409,8 +6496,11 @@
       <c r="CV19" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CW19" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="20" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -6711,8 +6801,11 @@
       <c r="CV20" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CW20" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="21" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7013,8 +7106,11 @@
       <c r="CV21" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CW21" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="22" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -7315,8 +7411,11 @@
       <c r="CV22" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="CW22" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="23" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7617,8 +7716,11 @@
       <c r="CV23" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CW23" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="24" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -7919,8 +8021,11 @@
       <c r="CV24" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CW24" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="25" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -8221,8 +8326,11 @@
       <c r="CV25" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CW25" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="26" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -8523,8 +8631,11 @@
       <c r="CV26" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CW26" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="27" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -8825,8 +8936,11 @@
       <c r="CV27" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CW27" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="28" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -9127,8 +9241,11 @@
       <c r="CV28" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CW28" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="29" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -9429,109 +9546,117 @@
       <c r="CV29" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CW29" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD2 E3 G3:BD3 A3:D6 BE3:BT29 E4:I6 J4:V14 W4:BD29 A7:I14 A15:V29 A30:BT30 A31:XFD1048576 BU3:XFD30">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+  <conditionalFormatting sqref="E3 G3:BD3 A3:D6 BE3:BT29 BU3:XFD30 E4:I6 J4:V14 W4:BD29 A7:I14 A15:V29 A30:BT30 A31:XFD1048576 A1:XFD2">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D6 E3 G3:V3 E4:I6 J4:V14 C7:I14 C15:V29">
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I2">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:N2">
     <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:N2">
+  <conditionalFormatting sqref="R2:S2">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:S2">
+  <conditionalFormatting sqref="W2:X2">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:X2">
+  <conditionalFormatting sqref="AB2:AC2">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AC2">
+  <conditionalFormatting sqref="AG2:AH2">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AH2">
+  <conditionalFormatting sqref="AL2:AM2">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AM2">
+  <conditionalFormatting sqref="AQ2:AR2">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ2:AR2">
+  <conditionalFormatting sqref="AV2:AW2">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV2:AW2">
+  <conditionalFormatting sqref="BA2:BB2">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA2:BB2">
+  <conditionalFormatting sqref="BF2:BG2">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF2:BG2">
+  <conditionalFormatting sqref="BK2:BL2">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK2:BL2">
+  <conditionalFormatting sqref="BP2:BQ2">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP2:BQ2">
+  <conditionalFormatting sqref="BU2:BV2">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU2:BV2">
+  <conditionalFormatting sqref="BZ2:CA2">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ2:CA2">
+  <conditionalFormatting sqref="CE2:CF2">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE2:CF2">
+  <conditionalFormatting sqref="CJ2:CK2">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CJ2:CK2">
+  <conditionalFormatting sqref="CO2:CP2">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CO2:CP2">
+  <conditionalFormatting sqref="CT2:CU2">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CT2:CU2">
+  <conditionalFormatting sqref="CW2:CX2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FC7492-D109-4726-A52E-7E6B7599C472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B35C035-B074-4962-A103-203281D39B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2805" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -633,8 +633,8 @@
   <dimension ref="A1:DA29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CX3" sqref="CX3"/>
+      <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CM20" sqref="CM20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,6 +1619,12 @@
       <c r="CW3" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CX3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1924,6 +1930,12 @@
       <c r="CW4" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CX4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY4" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2229,6 +2241,12 @@
       <c r="CW5" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CX5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY5" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2534,6 +2552,12 @@
       <c r="CW6" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CX6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY6" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2839,6 +2863,12 @@
       <c r="CW7" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CX7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CY7" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3144,6 +3174,12 @@
       <c r="CW8" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CX8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY8" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3449,6 +3485,12 @@
       <c r="CW9" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CX9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY9" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3754,6 +3796,12 @@
       <c r="CW10" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CX10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY10" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -4059,6 +4107,12 @@
       <c r="CW11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CX11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY11" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4364,6 +4418,12 @@
       <c r="CW12" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CX12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY12" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4669,6 +4729,12 @@
       <c r="CW13" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CX13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY13" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4974,6 +5040,12 @@
       <c r="CW14" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CX14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY14" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5235,16 +5307,16 @@
         <v>32</v>
       </c>
       <c r="CI15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="CJ15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="CK15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="CL15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="CM15" s="2" t="s">
         <v>32</v>
@@ -5268,15 +5340,21 @@
         <v>32</v>
       </c>
       <c r="CT15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="CU15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="CV15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="CW15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CX15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CY15" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5584,8 +5662,14 @@
       <c r="CW16" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CX16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY16" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="17" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5889,8 +5973,14 @@
       <c r="CW17" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CX17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY17" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="18" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6194,8 +6284,14 @@
       <c r="CW18" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CX18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY18" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="19" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6499,8 +6595,14 @@
       <c r="CW19" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CX19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY19" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="20" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -6804,8 +6906,14 @@
       <c r="CW20" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="CX20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CY20" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="21" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7109,8 +7217,14 @@
       <c r="CW21" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CX21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY21" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="22" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -7414,8 +7528,14 @@
       <c r="CW22" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CX22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY22" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="23" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7719,8 +7839,14 @@
       <c r="CW23" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CX23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY23" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="24" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -8024,8 +8150,14 @@
       <c r="CW24" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CX24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY24" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="25" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -8329,8 +8461,14 @@
       <c r="CW25" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CX25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY25" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="26" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -8634,8 +8772,14 @@
       <c r="CW26" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CX26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY26" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="27" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -8939,8 +9083,14 @@
       <c r="CW27" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CX27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY27" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="28" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -9244,8 +9394,14 @@
       <c r="CW28" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CX28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY28" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="29" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -9549,9 +9705,15 @@
       <c r="CW29" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="CX29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY29" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3 G3:BD3 A3:D6 BE3:BT29 BU3:XFD30 E4:I6 J4:V14 W4:BD29 A7:I14 A15:V29 A30:BT30 A31:XFD1048576 A1:XFD2">
+  <conditionalFormatting sqref="A1:XFD2 E3 G3:BD3 A3:D6 BE3:BT29 E4:I6 J4:V14 W4:BD29 A7:I14 A15:V29 A30:BT30 A31:XFD1048576 BU3:XFD30">
     <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A986D8-83BC-4590-B91E-23A541905983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236974E4-FBF0-40BA-BD49-5EB1AE446613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2836" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -627,11 +627,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:DA28"/>
+  <dimension ref="A1:DB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DA1" sqref="DA1"/>
+      <selection pane="topRight" activeCell="CV21" sqref="CV21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +684,7 @@
     <col min="103" max="105" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:106" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44949</v>
       </c>
@@ -994,8 +994,11 @@
       <c r="DA1" s="1">
         <v>45093</v>
       </c>
+      <c r="DB1" s="3">
+        <v>45096</v>
+      </c>
     </row>
-    <row r="2" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1311,8 +1314,11 @@
       <c r="DA2" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="DB2" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1628,8 +1634,11 @@
       <c r="DA3" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DB3" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1945,8 +1954,11 @@
       <c r="DA4" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DB4" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2262,8 +2274,11 @@
       <c r="DA5" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DB5" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2579,8 +2594,11 @@
       <c r="DA6" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DB6" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2896,8 +2914,11 @@
       <c r="DA7" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DB7" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="8" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3213,8 +3234,11 @@
       <c r="DA8" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DB8" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3530,8 +3554,11 @@
       <c r="DA9" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DB9" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="10" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3847,8 +3874,11 @@
       <c r="DA10" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DB10" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="11" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4164,8 +4194,11 @@
       <c r="DA11" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DB11" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="12" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4481,8 +4514,11 @@
       <c r="DA12" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DB12" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="13" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4798,8 +4834,11 @@
       <c r="DA13" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DB13" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="14" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5115,8 +5154,11 @@
       <c r="DA14" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DB14" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="15" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -5432,8 +5474,11 @@
       <c r="DA15" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DB15" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="16" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -5749,8 +5794,11 @@
       <c r="DA16" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DB16" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6066,8 +6114,11 @@
       <c r="DA17" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DB17" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="18" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6383,8 +6434,11 @@
       <c r="DA18" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DB18" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6700,8 +6754,11 @@
       <c r="DA19" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DB19" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -7017,8 +7074,11 @@
       <c r="DA20" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DB20" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7334,8 +7394,11 @@
       <c r="DA21" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DB21" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="22" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -7651,8 +7714,11 @@
       <c r="DA22" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DB22" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="23" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7968,8 +8034,11 @@
       <c r="DA23" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DB23" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -8285,8 +8354,11 @@
       <c r="DA24" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DB24" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="25" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -8602,8 +8674,11 @@
       <c r="DA25" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DB25" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -8919,8 +8994,11 @@
       <c r="DA26" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DB26" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="27" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -9236,8 +9314,11 @@
       <c r="DA27" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DB27" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="28" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -9553,9 +9634,12 @@
       <c r="DA28" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DB28" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD2 E3 G3:BD3 A3:D6 E4:I6 J4:V14 A7:I14 A29:BT29 A30:XFD1048576 BE3:BT28 BU3:XFD29 W4:BD28 A15:V28">
+  <conditionalFormatting sqref="A1:XFD2 E3 G3:BD3 A3:D6 BE3:BT28 BU3:XFD29 E4:I6 J4:V14 W4:BD28 A7:I14 A15:V28 A29:BT29 A30:XFD1048576">
     <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236974E4-FBF0-40BA-BD49-5EB1AE446613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEDBE9B-1A9A-4290-A818-149698EDC8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2836" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -201,7 +190,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -627,11 +621,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:DB28"/>
+  <dimension ref="A1:DD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CV21" sqref="CV21"/>
+      <pane xSplit="1" topLeftCell="CA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DC27" sqref="DC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +678,7 @@
     <col min="103" max="105" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:108" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44949</v>
       </c>
@@ -997,8 +991,14 @@
       <c r="DB1" s="3">
         <v>45096</v>
       </c>
+      <c r="DC1" s="1">
+        <v>45097</v>
+      </c>
+      <c r="DD1" s="1">
+        <v>45098</v>
+      </c>
     </row>
-    <row r="2" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1317,8 +1317,14 @@
       <c r="DB2" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="DC2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="DD2" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1637,8 +1643,11 @@
       <c r="DB3" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="DC3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1957,8 +1966,11 @@
       <c r="DB4" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC4" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2277,8 +2289,11 @@
       <c r="DB5" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC5" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2597,8 +2612,11 @@
       <c r="DB6" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DC6" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2917,8 +2935,11 @@
       <c r="DB7" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC7" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="8" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3237,8 +3258,11 @@
       <c r="DB8" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DC8" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3557,8 +3581,11 @@
       <c r="DB9" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DC9" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="10" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3877,8 +3904,11 @@
       <c r="DB10" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC10" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="11" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4197,8 +4227,11 @@
       <c r="DB11" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DC11" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="12" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4517,8 +4550,11 @@
       <c r="DB12" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC12" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="13" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4837,8 +4873,11 @@
       <c r="DB13" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC13" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="14" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5157,8 +5196,11 @@
       <c r="DB14" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DC14" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="15" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -5477,8 +5519,11 @@
       <c r="DB15" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC15" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="16" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -5797,8 +5842,11 @@
       <c r="DB16" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DC16" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6117,8 +6165,11 @@
       <c r="DB17" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC17" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="18" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6437,8 +6488,11 @@
       <c r="DB18" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DC18" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6757,8 +6811,11 @@
       <c r="DB19" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DC19" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -7077,8 +7134,11 @@
       <c r="DB20" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DC20" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="21" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7397,8 +7457,11 @@
       <c r="DB21" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC21" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -7717,8 +7780,11 @@
       <c r="DB22" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC22" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="23" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -8037,8 +8103,11 @@
       <c r="DB23" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DC23" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -8357,8 +8426,11 @@
       <c r="DB24" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC24" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -8677,8 +8749,11 @@
       <c r="DB25" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DC25" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -8997,8 +9072,11 @@
       <c r="DB26" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC26" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="27" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -9317,8 +9395,11 @@
       <c r="DB27" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC27" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="28" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -9637,114 +9718,122 @@
       <c r="DB28" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DC28" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD2 E3 G3:BD3 A3:D6 BE3:BT28 BU3:XFD29 E4:I6 J4:V14 W4:BD28 A7:I14 A15:V28 A29:BT29 A30:XFD1048576">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+  <conditionalFormatting sqref="E3 G3:BD3 A3:D6 BE3:BT28 E4:I6 J4:V14 W4:BD28 A7:I14 A15:V28 A29:BT29 BU3:XFD29 A30:XFD1048576 A1:XFD2">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D6 E3 G3:V3 E4:I6 J4:V14 C7:I14 C15:V28">
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I2">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:N2">
     <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:N2">
+  <conditionalFormatting sqref="R2:S2">
     <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:S2">
+  <conditionalFormatting sqref="W2:X2">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:X2">
+  <conditionalFormatting sqref="AB2:AC2">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AC2">
+  <conditionalFormatting sqref="AG2:AH2">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AH2">
+  <conditionalFormatting sqref="AL2:AM2">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AM2">
+  <conditionalFormatting sqref="AQ2:AR2">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ2:AR2">
+  <conditionalFormatting sqref="AV2:AW2">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV2:AW2">
+  <conditionalFormatting sqref="BA2:BB2">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA2:BB2">
+  <conditionalFormatting sqref="BF2:BG2">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF2:BG2">
+  <conditionalFormatting sqref="BK2:BL2">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK2:BL2">
+  <conditionalFormatting sqref="BP2:BQ2">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP2:BQ2">
+  <conditionalFormatting sqref="BU2:BV2">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU2:BV2">
+  <conditionalFormatting sqref="BZ2:CA2">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ2:CA2">
+  <conditionalFormatting sqref="CE2:CF2">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE2:CF2">
+  <conditionalFormatting sqref="CJ2:CK2">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CJ2:CK2">
+  <conditionalFormatting sqref="CO2:CP2">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CO2:CP2">
+  <conditionalFormatting sqref="CT2:CU2">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CT2:CU2">
+  <conditionalFormatting sqref="CW2:CX2">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CW2:CX2">
+  <conditionalFormatting sqref="DC2:DD2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEDBE9B-1A9A-4290-A818-149698EDC8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4ABBEE-C2E6-46BB-A862-7FAF8E10B4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -190,12 +190,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -624,8 +619,8 @@
   <dimension ref="A1:DD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DC27" sqref="DC27"/>
+      <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DD28" sqref="DD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="DC2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DD2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:108" x14ac:dyDescent="0.25">
@@ -1560,7 +1555,7 @@
         <v>31</v>
       </c>
       <c r="CA3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="CB3" s="2" t="s">
         <v>35</v>
@@ -1575,7 +1570,7 @@
         <v>31</v>
       </c>
       <c r="CF3" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="CG3" s="2" t="s">
         <v>31</v>
@@ -1645,6 +1640,9 @@
       </c>
       <c r="DC3" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="DD3" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:108" x14ac:dyDescent="0.25">
@@ -1868,7 +1866,7 @@
         <v>36</v>
       </c>
       <c r="BV4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BW4" s="2" t="s">
         <v>31</v>
@@ -1968,6 +1966,9 @@
       </c>
       <c r="DC4" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="DD4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:108" x14ac:dyDescent="0.25">
@@ -2292,6 +2293,9 @@
       <c r="DC5" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD5" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2529,7 +2533,7 @@
         <v>31</v>
       </c>
       <c r="CA6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="CB6" s="2" t="s">
         <v>31</v>
@@ -2613,6 +2617,9 @@
         <v>31</v>
       </c>
       <c r="DC6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DD6" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2852,7 +2859,7 @@
         <v>31</v>
       </c>
       <c r="CA7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="CB7" s="2" t="s">
         <v>32</v>
@@ -2867,7 +2874,7 @@
         <v>32</v>
       </c>
       <c r="CF7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="CG7" s="2" t="s">
         <v>32</v>
@@ -2936,6 +2943,9 @@
         <v>32</v>
       </c>
       <c r="DC7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="DD7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3175,7 +3185,7 @@
         <v>31</v>
       </c>
       <c r="CA8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="CB8" s="2" t="s">
         <v>31</v>
@@ -3190,7 +3200,7 @@
         <v>31</v>
       </c>
       <c r="CF8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="CG8" s="2" t="s">
         <v>31</v>
@@ -3259,6 +3269,9 @@
         <v>31</v>
       </c>
       <c r="DC8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DD8" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3584,6 +3597,9 @@
       <c r="DC9" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DD9" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3806,7 +3822,7 @@
         <v>36</v>
       </c>
       <c r="BV10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BW10" s="2" t="s">
         <v>31</v>
@@ -3906,6 +3922,9 @@
       </c>
       <c r="DC10" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="DD10" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:108" x14ac:dyDescent="0.25">
@@ -4230,6 +4249,9 @@
       <c r="DC11" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DD11" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4452,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="BV12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BW12" s="2" t="s">
         <v>35</v>
@@ -4551,6 +4573,9 @@
         <v>32</v>
       </c>
       <c r="DC12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DD12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4876,6 +4901,9 @@
       <c r="DC13" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD13" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -5199,6 +5227,9 @@
       <c r="DC14" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD14" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5421,7 +5452,7 @@
         <v>36</v>
       </c>
       <c r="BV15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BW15" s="2" t="s">
         <v>32</v>
@@ -5520,6 +5551,9 @@
         <v>32</v>
       </c>
       <c r="DC15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DD15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5845,8 +5879,11 @@
       <c r="DC16" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD16" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6067,7 +6104,7 @@
         <v>36</v>
       </c>
       <c r="BV17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BW17" s="2" t="s">
         <v>31</v>
@@ -6168,8 +6205,11 @@
       <c r="DC17" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD17" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6390,7 +6430,7 @@
         <v>36</v>
       </c>
       <c r="BV18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BW18" s="2" t="s">
         <v>35</v>
@@ -6491,8 +6531,11 @@
       <c r="DC18" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DD18" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6728,7 +6771,7 @@
         <v>31</v>
       </c>
       <c r="CA19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="CB19" s="2" t="s">
         <v>31</v>
@@ -6814,8 +6857,11 @@
       <c r="DC19" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD19" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -7137,8 +7183,11 @@
       <c r="DC20" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD20" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7374,7 +7423,7 @@
         <v>31</v>
       </c>
       <c r="CA21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="CB21" s="2" t="s">
         <v>31</v>
@@ -7460,8 +7509,11 @@
       <c r="DC21" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD21" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="22" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -7783,8 +7835,11 @@
       <c r="DC22" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD22" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -8106,8 +8161,11 @@
       <c r="DC23" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DD23" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -8343,7 +8401,7 @@
         <v>31</v>
       </c>
       <c r="CA24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="CB24" s="2" t="s">
         <v>31</v>
@@ -8429,8 +8487,11 @@
       <c r="DC24" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD24" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -8752,8 +8813,11 @@
       <c r="DC25" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DD25" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -8989,7 +9053,7 @@
         <v>31</v>
       </c>
       <c r="CA26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="CB26" s="2" t="s">
         <v>31</v>
@@ -9075,8 +9139,11 @@
       <c r="DC26" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD26" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -9327,7 +9394,7 @@
         <v>31</v>
       </c>
       <c r="CF27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CG27" s="2" t="s">
         <v>32</v>
@@ -9398,8 +9465,11 @@
       <c r="DC27" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD27" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -9721,16 +9791,14 @@
       <c r="DC28" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DD28" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3 G3:BD3 A3:D6 BE3:BT28 E4:I6 J4:V14 W4:BD28 A7:I14 A15:V28 A29:BT29 BU3:XFD29 A30:XFD1048576 A1:XFD2">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+  <conditionalFormatting sqref="A1:XFD2 E3 G3:BD3 A3:D6 BE3:BT28 BU3:XFD29 E4:I6 J4:V14 W4:BD28 A7:I14 A15:V28 A29:BT29 A30:XFD1048576">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D6 E3 G3:V3 E4:I6 J4:V14 C7:I14 C15:V28">
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
-      <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I2">
@@ -9833,8 +9901,8 @@
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DC2:DD2">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="DC2:DD2 C2:D6 E3 G3:V3 E4:I6 J4:V14 C7:I14 C15:V28">
+    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236974E4-FBF0-40BA-BD49-5EB1AE446613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD537800-0DE6-49D4-AEAD-1CE619CC5CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2836" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -627,11 +627,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:DB28"/>
+  <dimension ref="A1:DC28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CV21" sqref="CV21"/>
+      <selection pane="topRight" activeCell="DC9" sqref="DC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +684,7 @@
     <col min="103" max="105" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44949</v>
       </c>
@@ -997,8 +997,11 @@
       <c r="DB1" s="3">
         <v>45096</v>
       </c>
+      <c r="DC1" s="3">
+        <v>45097</v>
+      </c>
     </row>
-    <row r="2" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1317,8 +1320,11 @@
       <c r="DB2" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="DC2" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1637,8 +1643,11 @@
       <c r="DB3" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="DC3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1957,8 +1966,11 @@
       <c r="DB4" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC4" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2277,8 +2289,11 @@
       <c r="DB5" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC5" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2597,8 +2612,11 @@
       <c r="DB6" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DC6" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2917,8 +2935,11 @@
       <c r="DB7" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC7" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="8" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3237,8 +3258,11 @@
       <c r="DB8" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DC8" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3557,8 +3581,11 @@
       <c r="DB9" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DC9" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="10" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3877,8 +3904,11 @@
       <c r="DB10" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC10" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="11" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4197,8 +4227,11 @@
       <c r="DB11" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DC11" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="12" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4517,8 +4550,11 @@
       <c r="DB12" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC12" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="13" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4837,8 +4873,11 @@
       <c r="DB13" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC13" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="14" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5157,8 +5196,11 @@
       <c r="DB14" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DC14" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="15" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -5477,8 +5519,11 @@
       <c r="DB15" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC15" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="16" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -5797,8 +5842,11 @@
       <c r="DB16" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DC16" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6117,8 +6165,11 @@
       <c r="DB17" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC17" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="18" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6437,8 +6488,11 @@
       <c r="DB18" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DC18" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6757,8 +6811,11 @@
       <c r="DB19" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DC19" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -7077,8 +7134,11 @@
       <c r="DB20" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DC20" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="21" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7397,8 +7457,11 @@
       <c r="DB21" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC21" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -7717,8 +7780,11 @@
       <c r="DB22" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC22" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="23" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -8037,8 +8103,11 @@
       <c r="DB23" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DC23" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -8357,8 +8426,11 @@
       <c r="DB24" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC24" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -8677,8 +8749,11 @@
       <c r="DB25" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DC25" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -8997,8 +9072,11 @@
       <c r="DB26" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC26" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="27" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -9317,8 +9395,11 @@
       <c r="DB27" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DC27" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="28" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -9635,6 +9716,9 @@
         <v>31</v>
       </c>
       <c r="DB28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC28" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD537800-0DE6-49D4-AEAD-1CE619CC5CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F923B29-6880-4B4C-B310-F5172538C168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -627,11 +627,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:DC28"/>
+  <dimension ref="A1:DD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DC9" sqref="DC9"/>
+      <pane xSplit="1" topLeftCell="CA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DD28" sqref="DD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,9 +682,11 @@
     <col min="100" max="100" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="101" max="102" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="103" max="105" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:108" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44949</v>
       </c>
@@ -1000,8 +1002,11 @@
       <c r="DC1" s="3">
         <v>45097</v>
       </c>
+      <c r="DD1" s="1">
+        <v>45098</v>
+      </c>
     </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1323,8 +1328,11 @@
       <c r="DC2" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="DD2" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1646,8 +1654,11 @@
       <c r="DC3" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD3" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1969,8 +1980,11 @@
       <c r="DC4" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD4" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2292,8 +2306,11 @@
       <c r="DC5" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD5" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2615,8 +2632,11 @@
       <c r="DC6" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DD6" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2938,8 +2958,11 @@
       <c r="DC7" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD7" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="8" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3261,8 +3284,11 @@
       <c r="DC8" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DD8" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3584,8 +3610,11 @@
       <c r="DC9" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DD9" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="10" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3907,8 +3936,11 @@
       <c r="DC10" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD10" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="11" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4230,8 +4262,11 @@
       <c r="DC11" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DD11" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="12" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4553,8 +4588,11 @@
       <c r="DC12" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DD12" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="13" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4876,8 +4914,11 @@
       <c r="DC13" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD13" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="14" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5199,8 +5240,11 @@
       <c r="DC14" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD14" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="15" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -5522,8 +5566,11 @@
       <c r="DC15" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD15" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="16" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -5845,8 +5892,11 @@
       <c r="DC16" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD16" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6168,8 +6218,11 @@
       <c r="DC17" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD17" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6491,8 +6544,11 @@
       <c r="DC18" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD18" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6814,8 +6870,11 @@
       <c r="DC19" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD19" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -7137,8 +7196,11 @@
       <c r="DC20" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD20" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7460,8 +7522,11 @@
       <c r="DC21" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD21" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="22" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -7783,8 +7848,11 @@
       <c r="DC22" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD22" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -8106,8 +8174,11 @@
       <c r="DC23" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DD23" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -8429,8 +8500,11 @@
       <c r="DC24" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD24" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -8752,8 +8826,11 @@
       <c r="DC25" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DD25" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -9075,8 +9152,11 @@
       <c r="DC26" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD26" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -9398,8 +9478,11 @@
       <c r="DC27" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="DD27" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -9721,9 +9804,12 @@
       <c r="DC28" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="DD28" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD2 E3 G3:BD3 A3:D6 BE3:BT28 BU3:XFD29 E4:I6 J4:V14 W4:BD28 A7:I14 A15:V28 A29:BT29 A30:XFD1048576">
+  <conditionalFormatting sqref="A1:XFD2 E3 G3:BD3 A3:D6 BE3:BT28 E4:I6 J4:V14 W4:BD28 A7:I14 A15:V28 A29:BT29 A30:XFD1048576 BU3:XFD29">
     <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E015A06B-45FA-48FE-B5AF-6B2A82D2A33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95676DE9-D6B9-43B5-94C7-D841BB8109CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>PROJ</t>
+  </si>
+  <si>
+    <t>PPDMO</t>
+  </si>
+  <si>
+    <t>RMS/TS</t>
   </si>
 </sst>
 </file>
@@ -507,17 +513,16 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -572,6 +577,27 @@
       <c r="C1" s="2">
         <v>45126</v>
       </c>
+      <c r="D1" s="2">
+        <v>45127</v>
+      </c>
+      <c r="E1" s="2">
+        <v>45128</v>
+      </c>
+      <c r="F1" s="2">
+        <v>45131</v>
+      </c>
+      <c r="G1" s="2">
+        <v>45132</v>
+      </c>
+      <c r="H1" s="2">
+        <v>45133</v>
+      </c>
+      <c r="I1" s="2">
+        <v>45134</v>
+      </c>
+      <c r="J1" s="2">
+        <v>45135</v>
+      </c>
       <c r="P1"/>
       <c r="Q1"/>
       <c r="R1"/>
@@ -606,6 +632,27 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
         <v>24</v>
       </c>
       <c r="P2"/>
@@ -673,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4"/>
       <c r="P4"/>
@@ -707,7 +754,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4"/>
       <c r="P5"/>
@@ -741,7 +788,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4"/>
     </row>
@@ -750,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4"/>
       <c r="P7"/>
@@ -784,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4"/>
       <c r="P8"/>
@@ -818,7 +865,7 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4"/>
       <c r="P9"/>
@@ -852,7 +899,7 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4"/>
       <c r="P10"/>
@@ -886,7 +933,7 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4"/>
     </row>
@@ -895,7 +942,7 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4"/>
     </row>
@@ -904,7 +951,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4"/>
       <c r="P13"/>
@@ -938,7 +985,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4"/>
       <c r="P14"/>
@@ -972,7 +1019,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4"/>
       <c r="P15"/>
@@ -1006,7 +1053,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4"/>
       <c r="P16"/>
@@ -1040,7 +1087,7 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4"/>
       <c r="P17"/>
@@ -1074,7 +1121,7 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4"/>
       <c r="P18"/>
@@ -1108,7 +1155,7 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4"/>
       <c r="P19"/>
@@ -1142,7 +1189,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C20" s="4"/>
     </row>
@@ -1151,7 +1198,7 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C21" s="4"/>
       <c r="P21"/>
@@ -1185,7 +1232,7 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C22" s="4"/>
       <c r="P22"/>
@@ -1219,7 +1266,7 @@
         <v>17</v>
       </c>
       <c r="B23">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C23" s="4"/>
       <c r="P23"/>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95676DE9-D6B9-43B5-94C7-D841BB8109CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DCBB9A-E978-4600-958F-70C28DD8D94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="28">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Gustavo Dos Santos Tavares</t>
   </si>
   <si>
-    <t>Hemilly Nicole Alamos Droguetti</t>
-  </si>
-  <si>
     <t>Igor Cremasco Viotto</t>
   </si>
   <si>
@@ -106,6 +103,12 @@
   </si>
   <si>
     <t>RMS/TS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -507,13 +510,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AN29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +574,7 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="2">
@@ -626,34 +629,34 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P2"/>
       <c r="Q2"/>
@@ -688,7 +691,15 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
@@ -722,7 +733,15 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
@@ -756,7 +775,15 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
@@ -783,23 +810,64 @@
       <c r="AM5"/>
       <c r="AN5"/>
     </row>
-    <row r="6" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
@@ -831,9 +899,17 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
@@ -865,9 +941,17 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
@@ -894,66 +978,98 @@
       <c r="AM9"/>
       <c r="AN9"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-      <c r="AF10"/>
-      <c r="AG10"/>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10"/>
-      <c r="AK10"/>
-      <c r="AL10"/>
-      <c r="AM10"/>
-      <c r="AN10"/>
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
@@ -985,9 +1101,17 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
@@ -1019,9 +1143,17 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
@@ -1053,9 +1185,17 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16"/>
@@ -1087,9 +1227,17 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17"/>
@@ -1118,12 +1266,20 @@
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18"/>
@@ -1150,57 +1306,81 @@
       <c r="AM18"/>
       <c r="AN18"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19"/>
-      <c r="AB19"/>
-      <c r="AC19"/>
-      <c r="AD19"/>
-      <c r="AE19"/>
-      <c r="AF19"/>
-      <c r="AG19"/>
-      <c r="AH19"/>
-      <c r="AI19"/>
-      <c r="AJ19"/>
-      <c r="AK19"/>
-      <c r="AL19"/>
-      <c r="AM19"/>
-      <c r="AN19"/>
-    </row>
-    <row r="20" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4"/>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21"/>
@@ -1229,12 +1409,20 @@
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>20</v>
-      </c>
-      <c r="C22" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22"/>
@@ -1261,52 +1449,18 @@
       <c r="AM22"/>
       <c r="AN22"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>21</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
-      <c r="Z23"/>
-      <c r="AA23"/>
-      <c r="AB23"/>
-      <c r="AC23"/>
-      <c r="AD23"/>
-      <c r="AE23"/>
-      <c r="AF23"/>
-      <c r="AG23"/>
-      <c r="AH23"/>
-      <c r="AI23"/>
-      <c r="AJ23"/>
-      <c r="AK23"/>
-      <c r="AL23"/>
-      <c r="AM23"/>
-      <c r="AN23"/>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AG30" s="5"/>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AG29" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C23">
-    <sortCondition ref="A2:A23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C22">
+    <sortCondition ref="A2:A22"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A24:BR1048576 BT24:XFD1048576 A1:XFD23">
+  <conditionalFormatting sqref="A23:BR1048576 BT23:XFD1048576 A1:XFD22">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DCBB9A-E978-4600-958F-70C28DD8D94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A6A444-FB63-4546-AF96-40F1D85ECF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="28">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -516,7 +516,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,6 +700,15 @@
       <c r="E3" t="s">
         <v>26</v>
       </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
@@ -742,6 +751,15 @@
       <c r="E4" t="s">
         <v>27</v>
       </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
@@ -784,6 +802,15 @@
       <c r="E5" t="s">
         <v>26</v>
       </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
@@ -826,6 +853,15 @@
       <c r="E6" t="s">
         <v>26</v>
       </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6"/>
@@ -868,6 +904,15 @@
       <c r="E7" t="s">
         <v>27</v>
       </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
@@ -910,6 +955,15 @@
       <c r="E8" t="s">
         <v>27</v>
       </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
@@ -952,6 +1006,15 @@
       <c r="E9" t="s">
         <v>26</v>
       </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
@@ -994,6 +1057,12 @@
       <c r="E10" t="s">
         <v>26</v>
       </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1011,6 +1080,15 @@
       <c r="E11" t="s">
         <v>26</v>
       </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1027,6 +1105,15 @@
       </c>
       <c r="E12" t="s">
         <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
       </c>
       <c r="P12"/>
       <c r="Q12"/>
@@ -1070,6 +1157,15 @@
       <c r="E13" t="s">
         <v>26</v>
       </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
@@ -1112,6 +1208,15 @@
       <c r="E14" t="s">
         <v>26</v>
       </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
@@ -1154,6 +1259,15 @@
       <c r="E15" t="s">
         <v>27</v>
       </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
@@ -1196,6 +1310,15 @@
       <c r="E16" t="s">
         <v>26</v>
       </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16"/>
@@ -1238,6 +1361,15 @@
       <c r="E17" t="s">
         <v>26</v>
       </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17"/>
@@ -1280,6 +1412,15 @@
       <c r="E18" t="s">
         <v>26</v>
       </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18"/>
@@ -1322,6 +1463,15 @@
       <c r="E19" t="s">
         <v>27</v>
       </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1337,6 +1487,15 @@
         <v>27</v>
       </c>
       <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
         <v>27</v>
       </c>
       <c r="P20"/>
@@ -1381,6 +1540,15 @@
       <c r="E21" t="s">
         <v>27</v>
       </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21"/>
@@ -1423,6 +1591,15 @@
       <c r="E22" t="s">
         <v>26</v>
       </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22"/>
@@ -1460,7 +1637,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A23:BR1048576 BT23:XFD1048576 A1:XFD22">
+  <conditionalFormatting sqref="A23:BR1048576 BT23:XFD1048576 A1:XFD9 A10:G10 I10:XFD10 A11:XFD22">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A6A444-FB63-4546-AF96-40F1D85ECF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4CCEA7-5252-43AA-B93F-C7B98371C58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="28">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -516,7 +516,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,6 +601,21 @@
       <c r="J1" s="2">
         <v>45135</v>
       </c>
+      <c r="K1" s="2">
+        <v>45169</v>
+      </c>
+      <c r="L1" s="2">
+        <v>45170</v>
+      </c>
+      <c r="M1" s="2">
+        <v>45171</v>
+      </c>
+      <c r="N1" s="2">
+        <v>45172</v>
+      </c>
+      <c r="O1" s="2">
+        <v>45173</v>
+      </c>
       <c r="P1"/>
       <c r="Q1"/>
       <c r="R1"/>
@@ -658,6 +673,21 @@
       <c r="J2" t="s">
         <v>23</v>
       </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
@@ -1637,7 +1667,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A23:BR1048576 BT23:XFD1048576 A1:XFD9 A10:G10 I10:XFD10 A11:XFD22">
+  <conditionalFormatting sqref="A10:G10 I10:XFD10 A11:XFD22 A23:BR1048576 BT23:XFD1048576 A1:XFD9">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4CCEA7-5252-43AA-B93F-C7B98371C58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E782A5B-8968-4FA0-8B7D-ECF8D083331A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="28">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -516,7 +516,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,8 +616,12 @@
       <c r="O1" s="2">
         <v>45173</v>
       </c>
-      <c r="P1"/>
-      <c r="Q1"/>
+      <c r="P1" s="2">
+        <v>45145</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>45146</v>
+      </c>
       <c r="R1"/>
       <c r="S1"/>
       <c r="T1"/>
@@ -688,8 +692,12 @@
       <c r="O2" t="s">
         <v>23</v>
       </c>
-      <c r="P2"/>
-      <c r="Q2"/>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
@@ -739,8 +747,12 @@
       <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="P3"/>
-      <c r="Q3"/>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
@@ -790,8 +802,12 @@
       <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="P4"/>
-      <c r="Q4"/>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
@@ -841,8 +857,12 @@
       <c r="H5" t="s">
         <v>27</v>
       </c>
-      <c r="P5"/>
-      <c r="Q5"/>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
@@ -892,8 +912,12 @@
       <c r="H6" t="s">
         <v>27</v>
       </c>
-      <c r="P6"/>
-      <c r="Q6"/>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
       <c r="R6"/>
       <c r="S6"/>
       <c r="T6"/>
@@ -943,8 +967,12 @@
       <c r="H7" t="s">
         <v>27</v>
       </c>
-      <c r="P7"/>
-      <c r="Q7"/>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
@@ -994,8 +1022,12 @@
       <c r="H8" t="s">
         <v>27</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8"/>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
       <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
@@ -1045,8 +1077,12 @@
       <c r="H9" t="s">
         <v>26</v>
       </c>
-      <c r="P9"/>
-      <c r="Q9"/>
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
       <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>
@@ -1093,6 +1129,12 @@
       <c r="G10" t="s">
         <v>27</v>
       </c>
+      <c r="P10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1119,6 +1161,12 @@
       <c r="H11" t="s">
         <v>27</v>
       </c>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1145,8 +1193,12 @@
       <c r="H12" t="s">
         <v>27</v>
       </c>
-      <c r="P12"/>
-      <c r="Q12"/>
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>27</v>
+      </c>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
@@ -1196,8 +1248,12 @@
       <c r="H13" t="s">
         <v>26</v>
       </c>
-      <c r="P13"/>
-      <c r="Q13"/>
+      <c r="P13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>27</v>
+      </c>
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13"/>
@@ -1247,8 +1303,12 @@
       <c r="H14" t="s">
         <v>27</v>
       </c>
-      <c r="P14"/>
-      <c r="Q14"/>
+      <c r="P14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>27</v>
+      </c>
       <c r="R14"/>
       <c r="S14"/>
       <c r="T14"/>
@@ -1298,8 +1358,12 @@
       <c r="H15" t="s">
         <v>26</v>
       </c>
-      <c r="P15"/>
-      <c r="Q15"/>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
       <c r="R15"/>
       <c r="S15"/>
       <c r="T15"/>
@@ -1349,8 +1413,12 @@
       <c r="H16" t="s">
         <v>27</v>
       </c>
-      <c r="P16"/>
-      <c r="Q16"/>
+      <c r="P16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>26</v>
+      </c>
       <c r="R16"/>
       <c r="S16"/>
       <c r="T16"/>
@@ -1400,8 +1468,12 @@
       <c r="H17" t="s">
         <v>26</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17"/>
+      <c r="P17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
       <c r="R17"/>
       <c r="S17"/>
       <c r="T17"/>
@@ -1451,8 +1523,12 @@
       <c r="H18" t="s">
         <v>27</v>
       </c>
-      <c r="P18"/>
-      <c r="Q18"/>
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>26</v>
+      </c>
       <c r="R18"/>
       <c r="S18"/>
       <c r="T18"/>
@@ -1502,6 +1578,12 @@
       <c r="H19" t="s">
         <v>27</v>
       </c>
+      <c r="P19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1528,8 +1610,12 @@
       <c r="H20" t="s">
         <v>27</v>
       </c>
-      <c r="P20"/>
-      <c r="Q20"/>
+      <c r="P20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>27</v>
+      </c>
       <c r="R20"/>
       <c r="S20"/>
       <c r="T20"/>
@@ -1579,8 +1665,12 @@
       <c r="H21" t="s">
         <v>26</v>
       </c>
-      <c r="P21"/>
-      <c r="Q21"/>
+      <c r="P21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>26</v>
+      </c>
       <c r="R21"/>
       <c r="S21"/>
       <c r="T21"/>
@@ -1630,8 +1720,12 @@
       <c r="H22" t="s">
         <v>27</v>
       </c>
-      <c r="P22"/>
-      <c r="Q22"/>
+      <c r="P22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>27</v>
+      </c>
       <c r="R22"/>
       <c r="S22"/>
       <c r="T22"/>
@@ -1667,7 +1761,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A10:G10 I10:XFD10 A11:XFD22 A23:BR1048576 BT23:XFD1048576 A1:XFD9">
+  <conditionalFormatting sqref="A10:G10 A23:BR1048576 BT23:XFD1048576 A1:XFD9 I10:XFD10 A11:XFD22">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E782A5B-8968-4FA0-8B7D-ECF8D083331A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5056C399-1E9E-4D0D-8C2B-ACF7B9734422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="28">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -516,7 +516,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +529,9 @@
     <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -622,9 +624,15 @@
       <c r="Q1" s="2">
         <v>45146</v>
       </c>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
+      <c r="R1" s="2">
+        <v>45147</v>
+      </c>
+      <c r="S1" s="2">
+        <v>45148</v>
+      </c>
+      <c r="T1" s="2">
+        <v>45149</v>
+      </c>
       <c r="U1"/>
       <c r="V1"/>
       <c r="W1"/>
@@ -698,9 +706,15 @@
       <c r="Q2" t="s">
         <v>25</v>
       </c>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
@@ -747,13 +761,36 @@
       <c r="H3" t="s">
         <v>27</v>
       </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
       <c r="P3" t="s">
         <v>27</v>
       </c>
       <c r="Q3" t="s">
         <v>27</v>
       </c>
-      <c r="R3"/>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
@@ -802,13 +839,36 @@
       <c r="H4" t="s">
         <v>27</v>
       </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
       <c r="P4" t="s">
         <v>27</v>
       </c>
       <c r="Q4" t="s">
         <v>27</v>
       </c>
-      <c r="R4"/>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
       <c r="S4"/>
       <c r="T4"/>
       <c r="U4"/>
@@ -857,13 +917,36 @@
       <c r="H5" t="s">
         <v>27</v>
       </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
       <c r="P5" t="s">
         <v>27</v>
       </c>
       <c r="Q5" t="s">
         <v>27</v>
       </c>
-      <c r="R5"/>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
@@ -912,13 +995,36 @@
       <c r="H6" t="s">
         <v>27</v>
       </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
       <c r="P6" t="s">
         <v>27</v>
       </c>
       <c r="Q6" t="s">
         <v>27</v>
       </c>
-      <c r="R6"/>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
       <c r="S6"/>
       <c r="T6"/>
       <c r="U6"/>
@@ -967,13 +1073,36 @@
       <c r="H7" t="s">
         <v>27</v>
       </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
       <c r="P7" t="s">
         <v>27</v>
       </c>
       <c r="Q7" t="s">
         <v>27</v>
       </c>
-      <c r="R7"/>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
       <c r="S7"/>
       <c r="T7"/>
       <c r="U7"/>
@@ -1022,13 +1151,36 @@
       <c r="H8" t="s">
         <v>27</v>
       </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" t="s">
+        <v>27</v>
+      </c>
       <c r="P8" t="s">
         <v>27</v>
       </c>
       <c r="Q8" t="s">
         <v>27</v>
       </c>
-      <c r="R8"/>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
@@ -1077,13 +1229,36 @@
       <c r="H9" t="s">
         <v>26</v>
       </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
       <c r="P9" t="s">
         <v>27</v>
       </c>
       <c r="Q9" t="s">
         <v>27</v>
       </c>
-      <c r="R9"/>
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9"/>
@@ -1129,10 +1304,34 @@
       <c r="G10" t="s">
         <v>27</v>
       </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
       <c r="P10" t="s">
         <v>26</v>
       </c>
       <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1161,11 +1360,35 @@
       <c r="H11" t="s">
         <v>27</v>
       </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
       <c r="P11" t="s">
         <v>26</v>
       </c>
       <c r="Q11" t="s">
         <v>27</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
@@ -1193,13 +1416,36 @@
       <c r="H12" t="s">
         <v>27</v>
       </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" t="s">
+        <v>27</v>
+      </c>
       <c r="P12" t="s">
         <v>27</v>
       </c>
       <c r="Q12" t="s">
         <v>27</v>
       </c>
-      <c r="R12"/>
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
       <c r="S12"/>
       <c r="T12"/>
       <c r="U12"/>
@@ -1248,13 +1494,36 @@
       <c r="H13" t="s">
         <v>26</v>
       </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" t="s">
+        <v>27</v>
+      </c>
       <c r="P13" t="s">
         <v>27</v>
       </c>
       <c r="Q13" t="s">
         <v>27</v>
       </c>
-      <c r="R13"/>
+      <c r="R13" t="s">
+        <v>27</v>
+      </c>
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13"/>
@@ -1303,13 +1572,36 @@
       <c r="H14" t="s">
         <v>27</v>
       </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" t="s">
+        <v>27</v>
+      </c>
       <c r="P14" t="s">
         <v>27</v>
       </c>
       <c r="Q14" t="s">
         <v>27</v>
       </c>
-      <c r="R14"/>
+      <c r="R14" t="s">
+        <v>27</v>
+      </c>
       <c r="S14"/>
       <c r="T14"/>
       <c r="U14"/>
@@ -1358,13 +1650,36 @@
       <c r="H15" t="s">
         <v>26</v>
       </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" t="s">
+        <v>27</v>
+      </c>
       <c r="P15" t="s">
         <v>27</v>
       </c>
       <c r="Q15" t="s">
         <v>27</v>
       </c>
-      <c r="R15"/>
+      <c r="R15" t="s">
+        <v>27</v>
+      </c>
       <c r="S15"/>
       <c r="T15"/>
       <c r="U15"/>
@@ -1413,13 +1728,36 @@
       <c r="H16" t="s">
         <v>27</v>
       </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" t="s">
+        <v>27</v>
+      </c>
       <c r="P16" t="s">
         <v>27</v>
       </c>
       <c r="Q16" t="s">
         <v>26</v>
       </c>
-      <c r="R16"/>
+      <c r="R16" t="s">
+        <v>27</v>
+      </c>
       <c r="S16"/>
       <c r="T16"/>
       <c r="U16"/>
@@ -1468,13 +1806,36 @@
       <c r="H17" t="s">
         <v>26</v>
       </c>
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" t="s">
+        <v>27</v>
+      </c>
       <c r="P17" t="s">
         <v>27</v>
       </c>
       <c r="Q17" t="s">
         <v>27</v>
       </c>
-      <c r="R17"/>
+      <c r="R17" t="s">
+        <v>27</v>
+      </c>
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17"/>
@@ -1523,13 +1884,36 @@
       <c r="H18" t="s">
         <v>27</v>
       </c>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
       <c r="P18" t="s">
         <v>27</v>
       </c>
       <c r="Q18" t="s">
         <v>26</v>
       </c>
-      <c r="R18"/>
+      <c r="R18" t="s">
+        <v>26</v>
+      </c>
       <c r="S18"/>
       <c r="T18"/>
       <c r="U18"/>
@@ -1578,10 +1962,34 @@
       <c r="H19" t="s">
         <v>27</v>
       </c>
+      <c r="I19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" t="s">
+        <v>27</v>
+      </c>
       <c r="P19" t="s">
         <v>27</v>
       </c>
       <c r="Q19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1610,13 +2018,36 @@
       <c r="H20" t="s">
         <v>27</v>
       </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" t="s">
+        <v>27</v>
+      </c>
       <c r="P20" t="s">
         <v>27</v>
       </c>
       <c r="Q20" t="s">
         <v>27</v>
       </c>
-      <c r="R20"/>
+      <c r="R20" t="s">
+        <v>27</v>
+      </c>
       <c r="S20"/>
       <c r="T20"/>
       <c r="U20"/>
@@ -1665,13 +2096,36 @@
       <c r="H21" t="s">
         <v>26</v>
       </c>
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" t="s">
+        <v>27</v>
+      </c>
       <c r="P21" t="s">
         <v>27</v>
       </c>
       <c r="Q21" t="s">
         <v>26</v>
       </c>
-      <c r="R21"/>
+      <c r="R21" t="s">
+        <v>26</v>
+      </c>
       <c r="S21"/>
       <c r="T21"/>
       <c r="U21"/>
@@ -1720,13 +2174,36 @@
       <c r="H22" t="s">
         <v>27</v>
       </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" t="s">
+        <v>27</v>
+      </c>
       <c r="P22" t="s">
         <v>27</v>
       </c>
       <c r="Q22" t="s">
         <v>27</v>
       </c>
-      <c r="R22"/>
+      <c r="R22" t="s">
+        <v>27</v>
+      </c>
       <c r="S22"/>
       <c r="T22"/>
       <c r="U22"/>
@@ -1761,7 +2238,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A10:G10 A23:BR1048576 BT23:XFD1048576 A1:XFD9 I10:XFD10 A11:XFD22">
+  <conditionalFormatting sqref="A10:G10 A11:H22 A23:BR1048576 BT23:XFD1048576 A3:H9 A1:XFD2 I3:XFD22">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5056C399-1E9E-4D0D-8C2B-ACF7B9734422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A121D2-C293-4C39-8493-A03DCC25E2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="28">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -115,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +145,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -166,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -180,6 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,7 +524,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R21" sqref="R21"/>
+      <selection pane="bottomRight" activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +799,9 @@
       <c r="R3" t="s">
         <v>27</v>
       </c>
-      <c r="S3"/>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
       <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
@@ -869,7 +879,9 @@
       <c r="R4" t="s">
         <v>27</v>
       </c>
-      <c r="S4"/>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
       <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
@@ -947,7 +959,9 @@
       <c r="R5" t="s">
         <v>27</v>
       </c>
-      <c r="S5"/>
+      <c r="S5" t="s">
+        <v>26</v>
+      </c>
       <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
@@ -1025,7 +1039,9 @@
       <c r="R6" t="s">
         <v>27</v>
       </c>
-      <c r="S6"/>
+      <c r="S6" t="s">
+        <v>27</v>
+      </c>
       <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
@@ -1103,7 +1119,9 @@
       <c r="R7" t="s">
         <v>27</v>
       </c>
-      <c r="S7"/>
+      <c r="S7" t="s">
+        <v>27</v>
+      </c>
       <c r="T7"/>
       <c r="U7"/>
       <c r="V7"/>
@@ -1181,7 +1199,9 @@
       <c r="R8" t="s">
         <v>27</v>
       </c>
-      <c r="S8"/>
+      <c r="S8" t="s">
+        <v>27</v>
+      </c>
       <c r="T8"/>
       <c r="U8"/>
       <c r="V8"/>
@@ -1259,7 +1279,9 @@
       <c r="R9" t="s">
         <v>27</v>
       </c>
-      <c r="S9"/>
+      <c r="S9" t="s">
+        <v>26</v>
+      </c>
       <c r="T9"/>
       <c r="U9"/>
       <c r="V9"/>
@@ -1334,6 +1356,9 @@
       <c r="R10" t="s">
         <v>27</v>
       </c>
+      <c r="S10" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1390,6 +1415,9 @@
       <c r="R11" t="s">
         <v>26</v>
       </c>
+      <c r="S11" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1446,7 +1474,9 @@
       <c r="R12" t="s">
         <v>27</v>
       </c>
-      <c r="S12"/>
+      <c r="S12" t="s">
+        <v>26</v>
+      </c>
       <c r="T12"/>
       <c r="U12"/>
       <c r="V12"/>
@@ -1524,7 +1554,9 @@
       <c r="R13" t="s">
         <v>27</v>
       </c>
-      <c r="S13"/>
+      <c r="S13" t="s">
+        <v>26</v>
+      </c>
       <c r="T13"/>
       <c r="U13"/>
       <c r="V13"/>
@@ -1602,7 +1634,9 @@
       <c r="R14" t="s">
         <v>27</v>
       </c>
-      <c r="S14"/>
+      <c r="S14" t="s">
+        <v>26</v>
+      </c>
       <c r="T14"/>
       <c r="U14"/>
       <c r="V14"/>
@@ -1680,7 +1714,9 @@
       <c r="R15" t="s">
         <v>27</v>
       </c>
-      <c r="S15"/>
+      <c r="S15" t="s">
+        <v>27</v>
+      </c>
       <c r="T15"/>
       <c r="U15"/>
       <c r="V15"/>
@@ -1758,7 +1794,9 @@
       <c r="R16" t="s">
         <v>27</v>
       </c>
-      <c r="S16"/>
+      <c r="S16" t="s">
+        <v>27</v>
+      </c>
       <c r="T16"/>
       <c r="U16"/>
       <c r="V16"/>
@@ -1836,7 +1874,9 @@
       <c r="R17" t="s">
         <v>27</v>
       </c>
-      <c r="S17"/>
+      <c r="S17" t="s">
+        <v>27</v>
+      </c>
       <c r="T17"/>
       <c r="U17"/>
       <c r="V17"/>
@@ -1914,7 +1954,9 @@
       <c r="R18" t="s">
         <v>26</v>
       </c>
-      <c r="S18"/>
+      <c r="S18" t="s">
+        <v>27</v>
+      </c>
       <c r="T18"/>
       <c r="U18"/>
       <c r="V18"/>
@@ -1992,6 +2034,9 @@
       <c r="R19" t="s">
         <v>27</v>
       </c>
+      <c r="S19" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2048,7 +2093,9 @@
       <c r="R20" t="s">
         <v>27</v>
       </c>
-      <c r="S20"/>
+      <c r="S20" t="s">
+        <v>27</v>
+      </c>
       <c r="T20"/>
       <c r="U20"/>
       <c r="V20"/>
@@ -2126,7 +2173,9 @@
       <c r="R21" t="s">
         <v>26</v>
       </c>
-      <c r="S21"/>
+      <c r="S21" t="s">
+        <v>26</v>
+      </c>
       <c r="T21"/>
       <c r="U21"/>
       <c r="V21"/>
@@ -2204,7 +2253,9 @@
       <c r="R22" t="s">
         <v>27</v>
       </c>
-      <c r="S22"/>
+      <c r="S22" t="s">
+        <v>27</v>
+      </c>
       <c r="T22"/>
       <c r="U22"/>
       <c r="V22"/>
@@ -2238,7 +2289,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A10:G10 A11:H22 A23:BR1048576 BT23:XFD1048576 A3:H9 A1:XFD2 I3:XFD22">
+  <conditionalFormatting sqref="A1:XFD2 A3:H9 I3:XFD22 A10:G10 A11:H22 A23:BR1048576 BT23:XFD1048576">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A121D2-C293-4C39-8493-A03DCC25E2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215F8D2E-3B04-4868-A280-47309CBE5967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,10 +184,10 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,7 +524,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S3" sqref="S3"/>
+      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,10 +583,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="2">
         <v>45126</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>27</v>
       </c>
       <c r="S13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T13"/>
       <c r="U13"/>
@@ -2034,7 +2034,7 @@
       <c r="R19" t="s">
         <v>27</v>
       </c>
-      <c r="S19" s="7" t="s">
+      <c r="S19" s="6" t="s">
         <v>27</v>
       </c>
     </row>
